--- a/GUI + Reviews/202512/Review 202512/Coen/FCLSP_df_20251212_172733.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Coen/FCLSP_df_20251212_172733.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Coen/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_B47B62C42CC5B904AEEAB7DB9E683B837A92100E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B858A16-0983-4D62-A542-A36AF7910DEE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index Composition" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,23 @@
     <sheet name="Eligible Companies" sheetId="5" r:id="rId5"/>
     <sheet name="Final Selection" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1245,8 +1267,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,13 +1331,522 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="selection"/>
+      <sheetName val="inclusion"/>
+      <sheetName val="exclusion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>FR0010340141</v>
+          </cell>
+          <cell r="D2">
+            <v>98960602</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>FR001400J770</v>
+          </cell>
+          <cell r="D3">
+            <v>262769869</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>NL0000235190</v>
+          </cell>
+          <cell r="D4">
+            <v>792283683</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>FR0000071946</v>
+          </cell>
+          <cell r="D5">
+            <v>35343326</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>FR0004125920</v>
+          </cell>
+          <cell r="D6">
+            <v>206386326</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>LU0569974404</v>
+          </cell>
+          <cell r="D7">
+            <v>73184570</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>FR001400X2S4</v>
+          </cell>
+          <cell r="D8">
+            <v>19412501</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>FR0000120628</v>
+          </cell>
+          <cell r="D9">
+            <v>2123594281</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>FR0013258662</v>
+          </cell>
+          <cell r="D10">
+            <v>816960428</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>FR0000120966</v>
+          </cell>
+          <cell r="D11">
+            <v>41621162</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>FR0013280286</v>
+          </cell>
+          <cell r="D12">
+            <v>118361220</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>FR0000131104</v>
+          </cell>
+          <cell r="D13">
+            <v>1116784757</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>FR0000125338</v>
+          </cell>
+          <cell r="D14">
+            <v>171347471</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>FR0000120172</v>
+          </cell>
+          <cell r="D15">
+            <v>736314789</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>FR0010667147</v>
+          </cell>
+          <cell r="D16">
+            <v>150179792</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>FR0000120644</v>
+          </cell>
+          <cell r="D17">
+            <v>681394483</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>FR0014003TT8</v>
+          </cell>
+          <cell r="D18">
+            <v>1341456065</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>FR0011950732</v>
+          </cell>
+          <cell r="D19">
+            <v>253611809</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>NL0006294274</v>
+          </cell>
+          <cell r="D20">
+            <v>101542528</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>FR0000121147</v>
+          </cell>
+          <cell r="D21">
+            <v>197089340</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>FR0011726835</v>
+          </cell>
+          <cell r="D22">
+            <v>37117772</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>FR0000035081</v>
+          </cell>
+          <cell r="D23">
+            <v>76234545</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>FR0004024222</v>
+          </cell>
+          <cell r="D24">
+            <v>83727849</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>FR0010259150</v>
+          </cell>
+          <cell r="D25">
+            <v>83814526</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>FR0000050353</v>
+          </cell>
+          <cell r="D26">
+            <v>46538313</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>FR0000120321</v>
+          </cell>
+          <cell r="D27">
+            <v>533783024</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>FR0010241638</v>
+          </cell>
+          <cell r="D28">
+            <v>93886501</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>FR0000044448</v>
+          </cell>
+          <cell r="D29">
+            <v>43744779</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>FR0000124570</v>
+          </cell>
+          <cell r="D30">
+            <v>144022153</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>FR0000133308</v>
+          </cell>
+          <cell r="D31">
+            <v>2660056599</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>FR0000120693</v>
+          </cell>
+          <cell r="D32">
+            <v>252269195</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>FR0000130577</v>
+          </cell>
+          <cell r="D33">
+            <v>254311860</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>FR0000130395</v>
+          </cell>
+          <cell r="D34">
+            <v>52589879</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>FR0000131906</v>
+          </cell>
+          <cell r="D35">
+            <v>295722284</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>FR0010451203</v>
+          </cell>
+          <cell r="D36">
+            <v>299036619</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>FR0013269123</v>
+          </cell>
+          <cell r="D37">
+            <v>103361773</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>FR0000121709</v>
+          </cell>
+          <cell r="D38">
+            <v>55337770</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>FR0000073272</v>
+          </cell>
+          <cell r="D39">
+            <v>423632587</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>FR0000125007</v>
+          </cell>
+          <cell r="D40">
+            <v>499067417</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>FR0000120578</v>
+          </cell>
+          <cell r="D41">
+            <v>1227468973</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>FR0013154002</v>
+          </cell>
+          <cell r="D42">
+            <v>97330405</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>FR0000121972</v>
+          </cell>
+          <cell r="D43">
+            <v>577122512</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>FR0010411983</v>
+          </cell>
+          <cell r="D44">
+            <v>179363695</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>FR0000130809</v>
+          </cell>
+          <cell r="D45">
+            <v>766894786</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>FR0000121220</v>
+          </cell>
+          <cell r="D46">
+            <v>147454887</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>FR0013227113</v>
+          </cell>
+          <cell r="D47">
+            <v>35772015</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>BE0003470755</v>
+          </cell>
+          <cell r="D48">
+            <v>105876416</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>FR0000050809</v>
+          </cell>
+          <cell r="D49">
+            <v>20547701</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>FR0012757854</v>
+          </cell>
+          <cell r="D50">
+            <v>168073514</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>NL00150001Q9</v>
+          </cell>
+          <cell r="D51">
+            <v>2896073567</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>NL0000226223</v>
+          </cell>
+          <cell r="D52">
+            <v>911281920</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>NL0014559478</v>
+          </cell>
+          <cell r="D53">
+            <v>178378708</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>FR0000051807</v>
+          </cell>
+          <cell r="D54">
+            <v>59874365</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>FR0013326246</v>
+          </cell>
+          <cell r="D55">
+            <v>143244727</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>FR0013176526</v>
+          </cell>
+          <cell r="D56">
+            <v>245607624</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>FR0000124141</v>
+          </cell>
+          <cell r="D57">
+            <v>741723437</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>FR0000031775</v>
+          </cell>
+          <cell r="D58">
+            <v>44900000</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>FR0000125486</v>
+          </cell>
+          <cell r="D59">
+            <v>586933775</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>FR0000127771</v>
+          </cell>
+          <cell r="D60">
+            <v>1029918125</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>FR0011981968</v>
+          </cell>
+          <cell r="D61">
+            <v>283571633</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1353,7 +1884,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1387,6 +1918,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1421,9 +1953,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1596,14 +2129,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1654,8 +2199,16 @@
       <c r="H2" t="s">
         <v>132</v>
       </c>
+      <c r="I2" t="b">
+        <f>ISNUMBER(MATCH(B2,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <f>D2=[1]selection!D2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +2222,7 @@
         <v>262769869</v>
       </c>
       <c r="E3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1680,8 +2233,16 @@
       <c r="H3" t="s">
         <v>132</v>
       </c>
+      <c r="I3" t="b">
+        <f>ISNUMBER(MATCH(B3,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <f>D3=[1]selection!D3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1706,8 +2267,16 @@
       <c r="H4" t="s">
         <v>132</v>
       </c>
+      <c r="I4" t="b">
+        <f>ISNUMBER(MATCH(B4,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <f>D4=[1]selection!D4</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +2290,7 @@
         <v>35266866</v>
       </c>
       <c r="E5">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1732,8 +2301,16 @@
       <c r="H5" t="s">
         <v>132</v>
       </c>
+      <c r="I5" t="b">
+        <f>ISNUMBER(MATCH(B5,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <f>D5=[1]selection!D5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1758,8 +2335,16 @@
       <c r="H6" t="s">
         <v>132</v>
       </c>
+      <c r="I6" t="b">
+        <f>ISNUMBER(MATCH(B6,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <f>D6=[1]selection!D6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1773,7 +2358,7 @@
         <v>73184570</v>
       </c>
       <c r="E7">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1784,8 +2369,16 @@
       <c r="H7" t="s">
         <v>132</v>
       </c>
+      <c r="I7" t="b">
+        <f>ISNUMBER(MATCH(B7,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <f>D7=[1]selection!D7</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1799,7 +2392,7 @@
         <v>19412501</v>
       </c>
       <c r="E8">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1810,8 +2403,16 @@
       <c r="H8" t="s">
         <v>132</v>
       </c>
+      <c r="I8" t="b">
+        <f>ISNUMBER(MATCH(B8,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <f>D8=[1]selection!D8</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1825,7 +2426,7 @@
         <v>2168222821</v>
       </c>
       <c r="E9">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1836,8 +2437,16 @@
       <c r="H9" t="s">
         <v>132</v>
       </c>
+      <c r="I9" t="b">
+        <f>ISNUMBER(MATCH(B9,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <f>D9=[1]selection!D9</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1862,8 +2471,16 @@
       <c r="H10" t="s">
         <v>132</v>
       </c>
+      <c r="I10" t="b">
+        <f>ISNUMBER(MATCH(B10,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <f>D10=[1]selection!D10</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1888,8 +2505,16 @@
       <c r="H11" t="s">
         <v>132</v>
       </c>
+      <c r="I11" t="b">
+        <f>ISNUMBER(MATCH(B11,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <f>D11=[1]selection!D11</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1914,8 +2539,16 @@
       <c r="H12" t="s">
         <v>132</v>
       </c>
+      <c r="I12" t="b">
+        <f>ISNUMBER(MATCH(B12,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <f>D12=[1]selection!D12</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +2562,7 @@
         <v>1130810671</v>
       </c>
       <c r="E13">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1940,8 +2573,16 @@
       <c r="H13" t="s">
         <v>132</v>
       </c>
+      <c r="I13" t="b">
+        <f>ISNUMBER(MATCH(B13,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <f>D13=[1]selection!D13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +2596,7 @@
         <v>171347471</v>
       </c>
       <c r="E14">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1966,8 +2607,16 @@
       <c r="H14" t="s">
         <v>132</v>
       </c>
+      <c r="I14" t="b">
+        <f>ISNUMBER(MATCH(B14,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <f>D14=[1]selection!D14</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +2630,7 @@
         <v>736314789</v>
       </c>
       <c r="E15">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1992,8 +2641,16 @@
       <c r="H15" t="s">
         <v>132</v>
       </c>
+      <c r="I15" t="b">
+        <f>ISNUMBER(MATCH(B15,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <f>D15=[1]selection!D15</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2018,8 +2675,16 @@
       <c r="H16" t="s">
         <v>132</v>
       </c>
+      <c r="I16" t="b">
+        <f>ISNUMBER(MATCH(B16,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <f>D16=[1]selection!D16</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2033,7 +2698,7 @@
         <v>681394483</v>
       </c>
       <c r="E17">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2044,8 +2709,16 @@
       <c r="H17" t="s">
         <v>132</v>
       </c>
+      <c r="I17" t="b">
+        <f>ISNUMBER(MATCH(B17,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <f>D17=[1]selection!D17</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2070,8 +2743,16 @@
       <c r="H18" t="s">
         <v>132</v>
       </c>
+      <c r="I18" t="b">
+        <f>ISNUMBER(MATCH(B18,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <f>D18=[1]selection!D18</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2096,8 +2777,16 @@
       <c r="H19" t="s">
         <v>132</v>
       </c>
+      <c r="I19" t="b">
+        <f>ISNUMBER(MATCH(B19,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <f>D19=[1]selection!D19</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2811,16 @@
       <c r="H20" t="s">
         <v>132</v>
       </c>
+      <c r="I20" t="b">
+        <f>ISNUMBER(MATCH(B20,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <f>D20=[1]selection!D20</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2137,7 +2834,7 @@
         <v>197089340</v>
       </c>
       <c r="E21">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2148,8 +2845,16 @@
       <c r="H21" t="s">
         <v>132</v>
       </c>
+      <c r="I21" t="b">
+        <f>ISNUMBER(MATCH(B21,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <f>D21=[1]selection!D21</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2174,8 +2879,16 @@
       <c r="H22" t="s">
         <v>132</v>
       </c>
+      <c r="I22" t="b">
+        <f>ISNUMBER(MATCH(B22,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <f>D22=[1]selection!D22</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2200,8 +2913,16 @@
       <c r="H23" t="s">
         <v>132</v>
       </c>
+      <c r="I23" t="b">
+        <f>ISNUMBER(MATCH(B23,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <f>D23=[1]selection!D23</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2226,8 +2947,16 @@
       <c r="H24" t="s">
         <v>132</v>
       </c>
+      <c r="I24" t="b">
+        <f>ISNUMBER(MATCH(B24,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <f>D24=[1]selection!D24</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2252,8 +2981,16 @@
       <c r="H25" t="s">
         <v>132</v>
       </c>
+      <c r="I25" t="b">
+        <f>ISNUMBER(MATCH(B25,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <f>D25=[1]selection!D25</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2278,8 +3015,16 @@
       <c r="H26" t="s">
         <v>132</v>
       </c>
+      <c r="I26" t="b">
+        <f>ISNUMBER(MATCH(B26,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <f>D26=[1]selection!D26</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2304,8 +3049,16 @@
       <c r="H27" t="s">
         <v>132</v>
       </c>
+      <c r="I27" t="b">
+        <f>ISNUMBER(MATCH(B27,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <f>D27=[1]selection!D27</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2330,8 +3083,16 @@
       <c r="H28" t="s">
         <v>132</v>
       </c>
+      <c r="I28" t="b">
+        <f>ISNUMBER(MATCH(B28,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <f>D28=[1]selection!D28</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2345,7 +3106,7 @@
         <v>43744779</v>
       </c>
       <c r="E29">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2356,8 +3117,16 @@
       <c r="H29" t="s">
         <v>132</v>
       </c>
+      <c r="I29" t="b">
+        <f>ISNUMBER(MATCH(B29,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <f>D29=[1]selection!D29</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2382,8 +3151,16 @@
       <c r="H30" t="s">
         <v>132</v>
       </c>
+      <c r="I30" t="b">
+        <f>ISNUMBER(MATCH(B30,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <f>D30=[1]selection!D30</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2408,8 +3185,16 @@
       <c r="H31" t="s">
         <v>132</v>
       </c>
+      <c r="I31" t="b">
+        <f>ISNUMBER(MATCH(B31,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <f>D31=[1]selection!D31</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2434,8 +3219,16 @@
       <c r="H32" t="s">
         <v>132</v>
       </c>
+      <c r="I32" t="b">
+        <f>ISNUMBER(MATCH(B32,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <f>D32=[1]selection!D32</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2449,7 +3242,7 @@
         <v>254311860</v>
       </c>
       <c r="E33">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2460,8 +3253,16 @@
       <c r="H33" t="s">
         <v>132</v>
       </c>
+      <c r="I33" t="b">
+        <f>ISNUMBER(MATCH(B33,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <f>D33=[1]selection!D33</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2486,8 +3287,16 @@
       <c r="H34" t="s">
         <v>132</v>
       </c>
+      <c r="I34" t="b">
+        <f>ISNUMBER(MATCH(B34,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <f>D34=[1]selection!D34</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2512,8 +3321,16 @@
       <c r="H35" t="s">
         <v>132</v>
       </c>
+      <c r="I35" t="b">
+        <f>ISNUMBER(MATCH(B35,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <f>D35=[1]selection!D35</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2538,8 +3355,16 @@
       <c r="H36" t="s">
         <v>132</v>
       </c>
+      <c r="I36" t="b">
+        <f>ISNUMBER(MATCH(B36,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <f>D36=[1]selection!D36</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2564,8 +3389,16 @@
       <c r="H37" t="s">
         <v>132</v>
       </c>
+      <c r="I37" t="b">
+        <f>ISNUMBER(MATCH(B37,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <f>D37=[1]selection!D37</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2579,7 +3412,7 @@
         <v>55337770</v>
       </c>
       <c r="E38">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2590,8 +3423,16 @@
       <c r="H38" t="s">
         <v>132</v>
       </c>
+      <c r="I38" t="b">
+        <f>ISNUMBER(MATCH(B38,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <f>D38=[1]selection!D38</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2616,8 +3457,16 @@
       <c r="H39" t="s">
         <v>132</v>
       </c>
+      <c r="I39" t="b">
+        <f>ISNUMBER(MATCH(B39,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <f>D39=[1]selection!D39</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2642,8 +3491,16 @@
       <c r="H40" t="s">
         <v>132</v>
       </c>
+      <c r="I40" t="b">
+        <f>ISNUMBER(MATCH(B40,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <f>D40=[1]selection!D40</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2657,7 +3514,7 @@
         <v>1227468973</v>
       </c>
       <c r="E41">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2668,8 +3525,16 @@
       <c r="H41" t="s">
         <v>132</v>
       </c>
+      <c r="I41" t="b">
+        <f>ISNUMBER(MATCH(B41,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <f>D41=[1]selection!D41</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2694,8 +3559,16 @@
       <c r="H42" t="s">
         <v>132</v>
       </c>
+      <c r="I42" t="b">
+        <f>ISNUMBER(MATCH(B42,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <f>D42=[1]selection!D42</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2712,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0.83304974983723</v>
+        <v>0.83304974983723001</v>
       </c>
       <c r="G43" t="s">
         <v>131</v>
@@ -2720,8 +3593,16 @@
       <c r="H43" t="s">
         <v>132</v>
       </c>
+      <c r="I43" t="b">
+        <f>ISNUMBER(MATCH(B43,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <f>D43=[1]selection!D43</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2735,7 +3616,7 @@
         <v>179363695</v>
       </c>
       <c r="E44">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2746,8 +3627,16 @@
       <c r="H44" t="s">
         <v>132</v>
       </c>
+      <c r="I44" t="b">
+        <f>ISNUMBER(MATCH(B44,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <f>D44=[1]selection!D44</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2772,8 +3661,16 @@
       <c r="H45" t="s">
         <v>132</v>
       </c>
+      <c r="I45" t="b">
+        <f>ISNUMBER(MATCH(B45,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <f>D45=[1]selection!D45</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2787,7 +3684,7 @@
         <v>147454887</v>
       </c>
       <c r="E46">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2798,8 +3695,16 @@
       <c r="H46" t="s">
         <v>132</v>
       </c>
+      <c r="I46" t="b">
+        <f>ISNUMBER(MATCH(B46,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <f>D46=[1]selection!D46</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2813,7 +3718,7 @@
         <v>35772015</v>
       </c>
       <c r="E47">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2824,8 +3729,16 @@
       <c r="H47" t="s">
         <v>132</v>
       </c>
+      <c r="I47" t="b">
+        <f>ISNUMBER(MATCH(B47,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <f>D47=[1]selection!D47</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2850,8 +3763,16 @@
       <c r="H48" t="s">
         <v>132</v>
       </c>
+      <c r="I48" t="b">
+        <f>ISNUMBER(MATCH(B48,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <f>D48=[1]selection!D48</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2865,7 +3786,7 @@
         <v>20547701</v>
       </c>
       <c r="E49">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2876,8 +3797,16 @@
       <c r="H49" t="s">
         <v>132</v>
       </c>
+      <c r="I49" t="b">
+        <f>ISNUMBER(MATCH(B49,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <f>D49=[1]selection!D49</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2902,8 +3831,16 @@
       <c r="H50" t="s">
         <v>132</v>
       </c>
+      <c r="I50" t="b">
+        <f>ISNUMBER(MATCH(B50,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <f>D50=[1]selection!D50</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2917,7 +3854,7 @@
         <v>2896073567</v>
       </c>
       <c r="E51">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2928,8 +3865,16 @@
       <c r="H51" t="s">
         <v>132</v>
       </c>
+      <c r="I51" t="b">
+        <f>ISNUMBER(MATCH(B51,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <f>D51=[1]selection!D51</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2943,7 +3888,7 @@
         <v>911281920</v>
       </c>
       <c r="E52">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2954,8 +3899,16 @@
       <c r="H52" t="s">
         <v>132</v>
       </c>
+      <c r="I52" t="b">
+        <f>ISNUMBER(MATCH(B52,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <f>D52=[1]selection!D52</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2980,8 +3933,16 @@
       <c r="H53" t="s">
         <v>132</v>
       </c>
+      <c r="I53" t="b">
+        <f>ISNUMBER(MATCH(B53,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <f>D53=[1]selection!D53</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3006,8 +3967,16 @@
       <c r="H54" t="s">
         <v>132</v>
       </c>
+      <c r="I54" t="b">
+        <f>ISNUMBER(MATCH(B54,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <f>D54=[1]selection!D54</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3021,7 +3990,7 @@
         <v>143244727</v>
       </c>
       <c r="E55">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3032,8 +4001,16 @@
       <c r="H55" t="s">
         <v>132</v>
       </c>
+      <c r="I55" t="b">
+        <f>ISNUMBER(MATCH(B55,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <f>D55=[1]selection!D55</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3058,8 +4035,16 @@
       <c r="H56" t="s">
         <v>132</v>
       </c>
+      <c r="I56" t="b">
+        <f>ISNUMBER(MATCH(B56,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <f>D56=[1]selection!D56</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3073,7 +4058,7 @@
         <v>741723437</v>
       </c>
       <c r="E57">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3084,8 +4069,16 @@
       <c r="H57" t="s">
         <v>132</v>
       </c>
+      <c r="I57" t="b">
+        <f>ISNUMBER(MATCH(B57,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <f>D57=[1]selection!D57</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3110,8 +4103,16 @@
       <c r="H58" t="s">
         <v>132</v>
       </c>
+      <c r="I58" t="b">
+        <f>ISNUMBER(MATCH(B58,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <f>D58=[1]selection!D58</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3136,8 +4137,16 @@
       <c r="H59" t="s">
         <v>132</v>
       </c>
+      <c r="I59" t="b">
+        <f>ISNUMBER(MATCH(B59,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <f>D59=[1]selection!D59</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3151,7 +4160,7 @@
         <v>1029918125</v>
       </c>
       <c r="E60">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3162,8 +4171,16 @@
       <c r="H60" t="s">
         <v>132</v>
       </c>
+      <c r="I60" t="b">
+        <f>ISNUMBER(MATCH(B60,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <f>D60=[1]selection!D60</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3177,7 +4194,7 @@
         <v>283571633</v>
       </c>
       <c r="E61">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3187,22 +4204,33 @@
       </c>
       <c r="H61" t="s">
         <v>132</v>
+      </c>
+      <c r="I61" t="b">
+        <f>ISNUMBER(MATCH(B61,[1]selection!$B$2:$B$61,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <f>D61=[1]selection!D61</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +4241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3226,18 +4254,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -3261,18 +4292,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +4467,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -3471,7 +4505,7 @@
         <v>102.6</v>
       </c>
       <c r="M2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N2">
         <v>42.24</v>
@@ -3543,7 +4577,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -3656,7 +4690,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3682,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>130.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="J4">
         <v>120.5</v>
@@ -3766,7 +4800,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +4814,7 @@
         <v>262769869</v>
       </c>
       <c r="E5">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3798,7 +4832,7 @@
         <v>10.225</v>
       </c>
       <c r="K5">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L5">
         <v>10.225</v>
@@ -3876,7 +4910,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -3953,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AA6" t="s">
         <v>313</v>
@@ -3971,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -3989,7 +5023,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4027,7 +5061,7 @@
         <v>202.75</v>
       </c>
       <c r="M7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N7">
         <v>56.15</v>
@@ -4099,7 +5133,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -4137,7 +5171,7 @@
         <v>22.48</v>
       </c>
       <c r="M8">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N8">
         <v>62.81</v>
@@ -4209,7 +5243,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4241,13 +5275,13 @@
         <v>64.8</v>
       </c>
       <c r="K9">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L9">
         <v>64.8</v>
       </c>
       <c r="M9">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="N9">
         <v>57.97</v>
@@ -4319,7 +5353,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4360,7 +5394,7 @@
         <v>0.51</v>
       </c>
       <c r="N10">
-        <v>68.26000000000001</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="O10">
         <v>0.64</v>
@@ -4429,7 +5463,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4461,7 +5495,7 @@
         <v>31.02</v>
       </c>
       <c r="K11">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L11">
         <v>31.02</v>
@@ -4539,7 +5573,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -4568,13 +5602,13 @@
         <v>38.43</v>
       </c>
       <c r="J12">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="K12">
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="M12">
         <v>3.83</v>
@@ -4616,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.0039</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -4631,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.0039</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -4652,7 +5686,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -4696,7 +5730,7 @@
         <v>53.98</v>
       </c>
       <c r="O13">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P13" t="s">
         <v>310</v>
@@ -4738,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -4765,7 +5799,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -4797,7 +5831,7 @@
         <v>50.85</v>
       </c>
       <c r="K14">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L14">
         <v>50.85</v>
@@ -4809,7 +5843,7 @@
         <v>56.24</v>
       </c>
       <c r="O14">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P14" t="s">
         <v>310</v>
@@ -4851,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -4875,7 +5909,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4889,7 +5923,7 @@
         <v>19412501</v>
       </c>
       <c r="E15">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4904,13 +5938,13 @@
         <v>50.25</v>
       </c>
       <c r="J15">
-        <v>42.235</v>
+        <v>42.234999999999999</v>
       </c>
       <c r="K15">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L15">
-        <v>42.235</v>
+        <v>42.234999999999999</v>
       </c>
       <c r="M15">
         <v>0.33</v>
@@ -4934,7 +5968,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4960,19 +5994,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>39.91</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="J16">
         <v>38.14</v>
       </c>
       <c r="K16">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L16">
         <v>38.14</v>
       </c>
       <c r="M16">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N16">
         <v>61.26</v>
@@ -5044,7 +6078,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5154,7 +6188,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5213,7 +6247,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5323,7 +6357,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5355,7 +6389,7 @@
         <v>70.47</v>
       </c>
       <c r="K20">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L20">
         <v>70.47</v>
@@ -5433,7 +6467,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -5459,16 +6493,16 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>4.634</v>
+        <v>4.6340000000000003</v>
       </c>
       <c r="J21">
-        <v>4.618</v>
+        <v>4.6180000000000003</v>
       </c>
       <c r="K21">
         <v>0.2</v>
       </c>
       <c r="L21">
-        <v>4.618</v>
+        <v>4.6180000000000003</v>
       </c>
       <c r="M21">
         <v>2.59</v>
@@ -5546,7 +6580,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -5659,7 +6693,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -5769,7 +6803,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5801,13 +6835,13 @@
         <v>131.5</v>
       </c>
       <c r="K24">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L24">
         <v>131.5</v>
       </c>
       <c r="M24">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="N24">
         <v>77.88</v>
@@ -5879,7 +6913,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -5905,16 +6939,16 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>16.58</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="J25">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K25">
         <v>0.45</v>
       </c>
       <c r="L25">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M25">
         <v>6.76</v>
@@ -5992,7 +7026,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -6006,7 +7040,7 @@
         <v>736314789</v>
       </c>
       <c r="E26">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -6021,13 +7055,13 @@
         <v>14.115</v>
       </c>
       <c r="J26">
-        <v>12.985</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="K26">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L26">
-        <v>12.985</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="M26">
         <v>0.44</v>
@@ -6102,7 +7136,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -6116,7 +7150,7 @@
         <v>356754459</v>
       </c>
       <c r="E27">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -6128,16 +7162,16 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>3.684</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="J27">
-        <v>3.318</v>
+        <v>3.3180000000000001</v>
       </c>
       <c r="K27">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L27">
-        <v>3.318</v>
+        <v>3.3180000000000001</v>
       </c>
       <c r="M27">
         <v>6.68</v>
@@ -6161,7 +7195,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -6205,7 +7239,7 @@
         <v>51.19</v>
       </c>
       <c r="O28">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="P28" t="s">
         <v>310</v>
@@ -6247,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -6271,7 +7305,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -6312,7 +7346,7 @@
         <v>0.49</v>
       </c>
       <c r="N29">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="O29">
         <v>0.53</v>
@@ -6384,7 +7418,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -6413,13 +7447,13 @@
         <v>17.28</v>
       </c>
       <c r="J30">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K30">
         <v>0.3</v>
       </c>
       <c r="L30">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="M30">
         <v>9.25</v>
@@ -6497,7 +7531,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -6523,16 +7557,16 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>75.76000000000001</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="J31">
-        <v>78.45999999999999</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="K31">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L31">
-        <v>78.45999999999999</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="M31">
         <v>0.97</v>
@@ -6607,7 +7641,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -6651,7 +7685,7 @@
         <v>36.82</v>
       </c>
       <c r="O32">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P32" t="s">
         <v>311</v>
@@ -6693,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -6720,7 +7754,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -6764,7 +7798,7 @@
         <v>70.36</v>
       </c>
       <c r="O33">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P33" t="s">
         <v>310</v>
@@ -6806,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -6830,7 +7864,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>201</v>
       </c>
@@ -6862,7 +7896,7 @@
         <v>5.9</v>
       </c>
       <c r="K34">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L34">
         <v>5.9</v>
@@ -6892,7 +7926,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -6918,16 +7952,16 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>18.455</v>
+        <v>18.454999999999998</v>
       </c>
       <c r="J35">
-        <v>18.425</v>
+        <v>18.425000000000001</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>18.425</v>
+        <v>18.425000000000001</v>
       </c>
       <c r="M35">
         <v>1.79</v>
@@ -7002,7 +8036,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>203</v>
       </c>
@@ -7046,7 +8080,7 @@
         <v>48.04</v>
       </c>
       <c r="O36">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P36" t="s">
         <v>310</v>
@@ -7088,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -7112,7 +8146,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -7138,16 +8172,16 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>2.744</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="J37">
-        <v>2.594</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="K37">
         <v>0.5</v>
       </c>
       <c r="L37">
-        <v>2.594</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="M37">
         <v>1.47</v>
@@ -7171,7 +8205,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -7203,13 +8237,13 @@
         <v>24.64</v>
       </c>
       <c r="K38">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L38">
         <v>24.64</v>
       </c>
       <c r="M38">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N38">
         <v>55.2</v>
@@ -7281,7 +8315,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -7394,7 +8428,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -7471,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -7486,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AG40">
         <v>0</v>
@@ -7507,7 +8541,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>207</v>
       </c>
@@ -7569,7 +8603,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -7595,13 +8629,13 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>284.9</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="J42">
         <v>306</v>
       </c>
       <c r="K42">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L42">
         <v>306</v>
@@ -7682,7 +8716,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -7714,7 +8748,7 @@
         <v>52.85</v>
       </c>
       <c r="K43">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L43">
         <v>52.85</v>
@@ -7795,7 +8829,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>210</v>
       </c>
@@ -7905,7 +8939,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -7934,13 +8968,13 @@
         <v>122.5</v>
       </c>
       <c r="J45">
-        <v>128.8</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="K45">
         <v>0.75</v>
       </c>
       <c r="L45">
-        <v>128.8</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="M45">
         <v>0.66</v>
@@ -8015,7 +9049,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -8044,13 +9078,13 @@
         <v>2.09</v>
       </c>
       <c r="J46">
-        <v>3.225</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="K46">
         <v>0.35</v>
       </c>
       <c r="L46">
-        <v>3.225</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="M46">
         <v>1.88</v>
@@ -8074,7 +9108,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>212</v>
       </c>
@@ -8088,7 +9122,7 @@
         <v>17424747</v>
       </c>
       <c r="E47">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8106,7 +9140,7 @@
         <v>76</v>
       </c>
       <c r="K47">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L47">
         <v>76</v>
@@ -8184,7 +9218,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -8315,7 +9349,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -8425,7 +9459,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -8454,13 +9488,13 @@
         <v>13</v>
       </c>
       <c r="J50">
-        <v>10.265</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="K50">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L50">
-        <v>10.265</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="M50">
         <v>0.52</v>
@@ -8535,7 +9569,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>215</v>
       </c>
@@ -8567,7 +9601,7 @@
         <v>78.8</v>
       </c>
       <c r="K51">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L51">
         <v>78.8</v>
@@ -8645,7 +9679,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -8659,7 +9693,7 @@
         <v>550000000</v>
       </c>
       <c r="E52">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -8677,7 +9711,7 @@
         <v>15.23</v>
       </c>
       <c r="K52">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L52">
         <v>15.23</v>
@@ -8755,7 +9789,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -8781,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="J53">
         <v>171.5</v>
@@ -8865,7 +9899,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -8975,7 +10009,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -9034,7 +10068,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>218</v>
       </c>
@@ -9144,7 +10178,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>219</v>
       </c>
@@ -9254,7 +10288,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -9310,7 +10344,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -9420,7 +10454,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>220</v>
       </c>
@@ -9446,7 +10480,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>32.52</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="J60">
         <v>31.22</v>
@@ -9458,7 +10492,7 @@
         <v>31.22</v>
       </c>
       <c r="M60">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="N60">
         <v>54.47</v>
@@ -9533,7 +10567,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>221</v>
       </c>
@@ -9643,7 +10677,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -9669,13 +10703,13 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>291.85</v>
+        <v>291.85000000000002</v>
       </c>
       <c r="J62">
         <v>296.2</v>
       </c>
       <c r="K62">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L62">
         <v>296.2</v>
@@ -9684,7 +10718,7 @@
         <v>1.56</v>
       </c>
       <c r="N62">
-        <v>66.23999999999999</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="O62">
         <v>0.9</v>
@@ -9753,7 +10787,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -9779,16 +10813,16 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J63">
-        <v>32.84</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="K63">
         <v>0.8</v>
       </c>
       <c r="L63">
-        <v>32.84</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="M63">
         <v>11.03</v>
@@ -9866,7 +10900,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -9976,7 +11010,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -10086,7 +11120,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -10196,7 +11230,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -10222,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>625.2</v>
+        <v>625.20000000000005</v>
       </c>
       <c r="J67">
         <v>623</v>
@@ -10309,7 +11343,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>226</v>
       </c>
@@ -10347,7 +11381,7 @@
         <v>28.26</v>
       </c>
       <c r="M68">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="N68">
         <v>56.81</v>
@@ -10419,7 +11453,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -10460,7 +11494,7 @@
         <v>0.46</v>
       </c>
       <c r="N69">
-        <v>71.70999999999999</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="O69">
         <v>0.78</v>
@@ -10529,7 +11563,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>227</v>
       </c>
@@ -10588,7 +11622,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -10701,7 +11735,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -10727,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="J72">
         <v>18.2</v>
@@ -10760,7 +11794,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -10792,7 +11826,7 @@
         <v>119.6</v>
       </c>
       <c r="K73">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L73">
         <v>119.6</v>
@@ -10870,7 +11904,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>230</v>
       </c>
@@ -10896,16 +11930,16 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>8.890000000000001</v>
+        <v>8.89</v>
       </c>
       <c r="J74">
-        <v>8.705</v>
+        <v>8.7050000000000001</v>
       </c>
       <c r="K74">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L74">
-        <v>8.705</v>
+        <v>8.7050000000000001</v>
       </c>
       <c r="M74">
         <v>6.52</v>
@@ -10932,7 +11966,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -10976,7 +12010,7 @@
         <v>61.33</v>
       </c>
       <c r="O75">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P75" t="s">
         <v>310</v>
@@ -11018,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="AD75">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE75">
         <v>0</v>
@@ -11042,7 +12076,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -11068,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <v>13.735</v>
+        <v>13.734999999999999</v>
       </c>
       <c r="J76">
         <v>13.945</v>
@@ -11152,7 +12186,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -11178,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>75.45999999999999</v>
+        <v>75.459999999999994</v>
       </c>
       <c r="J77">
         <v>81.22</v>
@@ -11262,7 +12296,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>231</v>
       </c>
@@ -11276,7 +12310,7 @@
         <v>147174692</v>
       </c>
       <c r="E78">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -11294,13 +12328,13 @@
         <v>13.61</v>
       </c>
       <c r="K78">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L78">
         <v>13.61</v>
       </c>
       <c r="M78">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="O78" t="s">
         <v>308</v>
@@ -11369,7 +12403,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -11398,13 +12432,13 @@
         <v>87.2</v>
       </c>
       <c r="J79">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="K79">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L79">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="M79">
         <v>0.97</v>
@@ -11479,7 +12513,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -11589,7 +12623,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -11627,7 +12661,7 @@
         <v>34.32</v>
       </c>
       <c r="M81">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N81">
         <v>55.34</v>
@@ -11699,7 +12733,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -11809,7 +12843,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -11850,7 +12884,7 @@
         <v>1.88</v>
       </c>
       <c r="N83">
-        <v>36.27</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="O83">
         <v>0.91</v>
@@ -11868,7 +12902,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="84" spans="1:53">
+    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -11945,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>0.0013</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -11960,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>0.0013</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AG84">
         <v>0</v>
@@ -11978,7 +13012,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:53">
+    <row r="85" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -11992,7 +13026,7 @@
         <v>55337770</v>
       </c>
       <c r="E85">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -12010,7 +13044,7 @@
         <v>48</v>
       </c>
       <c r="K85">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L85">
         <v>48</v>
@@ -12088,7 +13122,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:53">
+    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -12117,13 +13151,13 @@
         <v>291.3</v>
       </c>
       <c r="J86">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="K86">
         <v>0.75</v>
       </c>
       <c r="L86">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="M86">
         <v>0.33</v>
@@ -12198,7 +13232,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:53">
+    <row r="87" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>46</v>
       </c>
@@ -12311,7 +13345,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="88" spans="1:53">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -12340,13 +13374,13 @@
         <v>83.64</v>
       </c>
       <c r="J88">
-        <v>86.31999999999999</v>
+        <v>86.32</v>
       </c>
       <c r="K88">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L88">
-        <v>86.31999999999999</v>
+        <v>86.32</v>
       </c>
       <c r="M88">
         <v>0.39</v>
@@ -12421,7 +13455,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="89" spans="1:53">
+    <row r="89" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -12531,7 +13565,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="90" spans="1:53">
+    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -12641,7 +13675,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:53">
+    <row r="91" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -12673,7 +13707,7 @@
         <v>26.96</v>
       </c>
       <c r="K91">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L91">
         <v>26.96</v>
@@ -12751,7 +13785,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:53">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>233</v>
       </c>
@@ -12780,13 +13814,13 @@
         <v>5.38</v>
       </c>
       <c r="J92">
-        <v>5.655</v>
+        <v>5.6550000000000002</v>
       </c>
       <c r="K92">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L92">
-        <v>5.655</v>
+        <v>5.6550000000000002</v>
       </c>
       <c r="M92">
         <v>1.89</v>
@@ -12861,7 +13895,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="93" spans="1:53">
+    <row r="93" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -12971,7 +14005,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:53">
+    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -12985,7 +14019,7 @@
         <v>147454887</v>
       </c>
       <c r="E94">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -13003,7 +14037,7 @@
         <v>47.24</v>
       </c>
       <c r="K94">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L94">
         <v>47.24</v>
@@ -13081,7 +14115,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:53">
+    <row r="95" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>53</v>
       </c>
@@ -13113,7 +14147,7 @@
         <v>23.3</v>
       </c>
       <c r="K95">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L95">
         <v>23.3</v>
@@ -13140,7 +14174,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="96" spans="1:53">
+    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -13217,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="Z96">
-        <v>0.009599999999999999</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="AA96" t="s">
         <v>313</v>
@@ -13235,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>0.009599999999999999</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="AG96">
         <v>0</v>
@@ -13253,7 +14287,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="1:53">
+    <row r="97" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>55</v>
       </c>
@@ -13279,13 +14313,13 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>144.8</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="J97">
         <v>128.5</v>
       </c>
       <c r="K97">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L97">
         <v>128.5</v>
@@ -13294,7 +14328,7 @@
         <v>0.74</v>
       </c>
       <c r="N97">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="O97">
         <v>0.91</v>
@@ -13363,7 +14397,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:53">
+    <row r="98" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>56</v>
       </c>
@@ -13473,7 +14507,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:53">
+    <row r="99" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -13502,16 +14536,16 @@
         <v>10.026</v>
       </c>
       <c r="J99">
-        <v>8.446999999999999</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="K99">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L99">
-        <v>8.446999999999999</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="M99">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N99">
         <v>53.7</v>
@@ -13583,7 +14617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:53">
+    <row r="100" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -13609,16 +14643,16 @@
         <v>1</v>
       </c>
       <c r="I100">
-        <v>21.995</v>
+        <v>21.995000000000001</v>
       </c>
       <c r="J100">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="K100">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L100">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="M100">
         <v>0.73</v>
@@ -13693,7 +14727,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:53">
+    <row r="101" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -13719,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="I101">
-        <v>32.48</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="J101">
         <v>33.56</v>
@@ -13803,7 +14837,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="1:53">
+    <row r="102" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -13913,7 +14947,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:53">
+    <row r="103" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -13942,13 +14976,13 @@
         <v>7.97</v>
       </c>
       <c r="J103">
-        <v>8.154999999999999</v>
+        <v>8.1549999999999994</v>
       </c>
       <c r="K103">
         <v>0.45</v>
       </c>
       <c r="L103">
-        <v>8.154999999999999</v>
+        <v>8.1549999999999994</v>
       </c>
       <c r="M103">
         <v>1.95</v>
@@ -14023,7 +15057,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="104" spans="1:53">
+    <row r="104" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>235</v>
       </c>
@@ -14136,7 +15170,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="105" spans="1:53">
+    <row r="105" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -14213,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="Z105">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="AA105" t="s">
         <v>314</v>
@@ -14231,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="AG105">
         <v>0</v>
@@ -14252,7 +15286,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:53">
+    <row r="106" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>237</v>
       </c>
@@ -14281,13 +15315,13 @@
         <v>170</v>
       </c>
       <c r="J106">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="K106">
         <v>0.4</v>
       </c>
       <c r="L106">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="M106">
         <v>1.9</v>
@@ -14362,7 +15396,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="1:53">
+    <row r="107" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>238</v>
       </c>
@@ -14472,7 +15506,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="108" spans="1:53">
+    <row r="108" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>61</v>
       </c>
@@ -14501,19 +15535,19 @@
         <v>90.48</v>
       </c>
       <c r="J108">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="K108">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L108">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="M108">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N108">
-        <v>73.04000000000001</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="O108">
         <v>0.92</v>
@@ -14582,7 +15616,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" spans="1:53">
+    <row r="109" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>62</v>
       </c>
@@ -14611,13 +15645,13 @@
         <v>11.365</v>
       </c>
       <c r="J109">
-        <v>10.505</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="K109">
         <v>0.9</v>
       </c>
       <c r="L109">
-        <v>10.505</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="M109">
         <v>0.5</v>
@@ -14626,7 +15660,7 @@
         <v>61.55</v>
       </c>
       <c r="O109">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P109" t="s">
         <v>310</v>
@@ -14668,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AD109">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE109">
         <v>0</v>
@@ -14692,7 +15726,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="110" spans="1:53">
+    <row r="110" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>239</v>
       </c>
@@ -14718,16 +15752,16 @@
         <v>1</v>
       </c>
       <c r="I110">
-        <v>15.325</v>
+        <v>15.324999999999999</v>
       </c>
       <c r="J110">
-        <v>15.655</v>
+        <v>15.654999999999999</v>
       </c>
       <c r="K110">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L110">
-        <v>15.655</v>
+        <v>15.654999999999999</v>
       </c>
       <c r="M110">
         <v>4.97</v>
@@ -14808,7 +15842,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:53">
+    <row r="111" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>240</v>
       </c>
@@ -14822,7 +15856,7 @@
         <v>171958275</v>
       </c>
       <c r="E111">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -14834,16 +15868,16 @@
         <v>1</v>
       </c>
       <c r="I111">
-        <v>3.828</v>
+        <v>3.8279999999999998</v>
       </c>
       <c r="J111">
-        <v>3.768</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="K111">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L111">
-        <v>3.768</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="M111">
         <v>2.94</v>
@@ -14870,7 +15904,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:53">
+    <row r="112" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>63</v>
       </c>
@@ -14902,7 +15936,7 @@
         <v>28.5</v>
       </c>
       <c r="K112">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L112">
         <v>28.5</v>
@@ -14947,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="Z112">
-        <v>0.0302</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AA112" t="s">
         <v>313</v>
@@ -14965,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>0.0302</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AG112">
         <v>0</v>
@@ -14983,7 +16017,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:53">
+    <row r="113" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>241</v>
       </c>
@@ -15042,7 +16076,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:53">
+    <row r="114" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>64</v>
       </c>
@@ -15152,7 +16186,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="115" spans="1:53">
+    <row r="115" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>65</v>
       </c>
@@ -15262,7 +16296,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="116" spans="1:53">
+    <row r="116" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>242</v>
       </c>
@@ -15303,7 +16337,7 @@
         <v>2.39</v>
       </c>
       <c r="N116">
-        <v>33.59</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="O116">
         <v>0.95</v>
@@ -15372,7 +16406,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="117" spans="1:53">
+    <row r="117" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>243</v>
       </c>
@@ -15488,7 +16522,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:53">
+    <row r="118" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -15514,13 +16548,13 @@
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2.365</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="J118">
         <v>2.54</v>
       </c>
       <c r="K118">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L118">
         <v>2.54</v>
@@ -15598,7 +16632,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="119" spans="1:53">
+    <row r="119" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -15612,7 +16646,7 @@
         <v>16721708</v>
       </c>
       <c r="E119">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -15630,7 +16664,7 @@
         <v>199.9</v>
       </c>
       <c r="K119">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L119">
         <v>199.9</v>
@@ -15708,7 +16742,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="120" spans="1:53">
+    <row r="120" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>245</v>
       </c>
@@ -15740,7 +16774,7 @@
         <v>77.3</v>
       </c>
       <c r="K120">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L120">
         <v>77.3</v>
@@ -15818,7 +16852,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="121" spans="1:53">
+    <row r="121" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>67</v>
       </c>
@@ -15844,16 +16878,16 @@
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1.3725</v>
+        <v>1.3725000000000001</v>
       </c>
       <c r="J121">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="K121">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L121">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="M121">
         <v>0.82</v>
@@ -15879,18 +16913,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BD90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16060,7 +17097,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -16092,7 +17129,7 @@
         <v>119.6</v>
       </c>
       <c r="K2">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L2">
         <v>119.6</v>
@@ -16170,7 +17207,7 @@
         <v>336</v>
       </c>
       <c r="BB2">
-        <v>4447094233.14</v>
+        <v>4447094233.1400003</v>
       </c>
       <c r="BC2">
         <v>1</v>
@@ -16179,7 +17216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -16205,19 +17242,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>39.91</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="J3">
         <v>38.14</v>
       </c>
       <c r="K3">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L3">
         <v>38.14</v>
       </c>
       <c r="M3">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N3">
         <v>61.26</v>
@@ -16289,7 +17326,7 @@
         <v>336</v>
       </c>
       <c r="BB3">
-        <v>70291615633.99901</v>
+        <v>70291615633.999008</v>
       </c>
       <c r="BC3">
         <v>2</v>
@@ -16298,7 +17335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -16327,13 +17364,13 @@
         <v>291.3</v>
       </c>
       <c r="J4">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="K4">
         <v>0.75</v>
       </c>
       <c r="L4">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="M4">
         <v>0.33</v>
@@ -16408,7 +17445,7 @@
         <v>336</v>
       </c>
       <c r="BB4">
-        <v>91949453008.34999</v>
+        <v>91949453008.349991</v>
       </c>
       <c r="BC4">
         <v>3</v>
@@ -16417,7 +17454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -16431,7 +17468,7 @@
         <v>19412501</v>
       </c>
       <c r="E5">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -16446,13 +17483,13 @@
         <v>50.25</v>
       </c>
       <c r="J5">
-        <v>42.235</v>
+        <v>42.234999999999999</v>
       </c>
       <c r="K5">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L5">
-        <v>42.235</v>
+        <v>42.234999999999999</v>
       </c>
       <c r="M5">
         <v>0.33</v>
@@ -16476,7 +17513,7 @@
         <v>336</v>
       </c>
       <c r="BB5">
-        <v>696903932.7747501</v>
+        <v>696903932.77475011</v>
       </c>
       <c r="BC5">
         <v>3</v>
@@ -16485,7 +17522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -16595,7 +17632,7 @@
         <v>336</v>
       </c>
       <c r="BB6">
-        <v>6909988673.5425</v>
+        <v>6909988673.5424995</v>
       </c>
       <c r="BC6">
         <v>5</v>
@@ -16604,7 +17641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -16618,7 +17655,7 @@
         <v>262769869</v>
       </c>
       <c r="E7">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -16636,7 +17673,7 @@
         <v>10.225</v>
       </c>
       <c r="K7">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L7">
         <v>10.225</v>
@@ -16714,7 +17751,7 @@
         <v>336</v>
       </c>
       <c r="BB7">
-        <v>1477752050.78875</v>
+        <v>1477752050.7887499</v>
       </c>
       <c r="BC7">
         <v>6</v>
@@ -16723,7 +17760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -16842,7 +17879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -16871,13 +17908,13 @@
         <v>83.64</v>
       </c>
       <c r="J9">
-        <v>86.31999999999999</v>
+        <v>86.32</v>
       </c>
       <c r="K9">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L9">
-        <v>86.31999999999999</v>
+        <v>86.32</v>
       </c>
       <c r="M9">
         <v>0.39</v>
@@ -16961,7 +17998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -17005,7 +18042,7 @@
         <v>61.33</v>
       </c>
       <c r="O10">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P10" t="s">
         <v>310</v>
@@ -17047,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -17071,7 +18108,7 @@
         <v>336</v>
       </c>
       <c r="BB10">
-        <v>813437120.1439999</v>
+        <v>813437120.14399993</v>
       </c>
       <c r="BC10">
         <v>8</v>
@@ -17080,7 +18117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -17094,7 +18131,7 @@
         <v>147454887</v>
       </c>
       <c r="E11">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -17112,7 +18149,7 @@
         <v>47.24</v>
       </c>
       <c r="K11">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L11">
         <v>47.24</v>
@@ -17190,7 +18227,7 @@
         <v>336</v>
       </c>
       <c r="BB11">
-        <v>3831172874.034</v>
+        <v>3831172874.0339999</v>
       </c>
       <c r="BC11">
         <v>10</v>
@@ -17199,7 +18236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -17231,7 +18268,7 @@
         <v>70.47</v>
       </c>
       <c r="K12">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L12">
         <v>70.47</v>
@@ -17309,7 +18346,7 @@
         <v>336</v>
       </c>
       <c r="BB12">
-        <v>75703816586.1015</v>
+        <v>75703816586.101501</v>
       </c>
       <c r="BC12">
         <v>11</v>
@@ -17318,7 +18355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -17332,7 +18369,7 @@
         <v>736314789</v>
       </c>
       <c r="E13">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -17347,13 +18384,13 @@
         <v>14.115</v>
       </c>
       <c r="J13">
-        <v>12.985</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="K13">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L13">
-        <v>12.985</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="M13">
         <v>0.44</v>
@@ -17428,7 +18465,7 @@
         <v>336</v>
       </c>
       <c r="BB13">
-        <v>9082995158.40675</v>
+        <v>9082995158.4067497</v>
       </c>
       <c r="BC13">
         <v>12</v>
@@ -17437,7 +18474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -17478,7 +18515,7 @@
         <v>0.46</v>
       </c>
       <c r="N14">
-        <v>71.70999999999999</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="O14">
         <v>0.78</v>
@@ -17547,7 +18584,7 @@
         <v>336</v>
       </c>
       <c r="BB14">
-        <v>993319180.58</v>
+        <v>993319180.58000004</v>
       </c>
       <c r="BC14">
         <v>13</v>
@@ -17556,7 +18593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -17600,7 +18637,7 @@
         <v>70.36</v>
       </c>
       <c r="O15">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P15" t="s">
         <v>310</v>
@@ -17642,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -17666,7 +18703,7 @@
         <v>336</v>
       </c>
       <c r="BB15">
-        <v>15789740469.12</v>
+        <v>15789740469.120001</v>
       </c>
       <c r="BC15">
         <v>14</v>
@@ -17675,7 +18712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -17752,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.0013</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -17767,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.0013</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -17785,7 +18822,7 @@
         <v>336</v>
       </c>
       <c r="BB16">
-        <v>2641100023.696</v>
+        <v>2641100023.6960001</v>
       </c>
       <c r="BC16">
         <v>15</v>
@@ -17794,7 +18831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -17823,13 +18860,13 @@
         <v>11.365</v>
       </c>
       <c r="J17">
-        <v>10.505</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="K17">
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>10.505</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="M17">
         <v>0.5</v>
@@ -17838,7 +18875,7 @@
         <v>61.55</v>
       </c>
       <c r="O17">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P17" t="s">
         <v>310</v>
@@ -17880,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -17904,7 +18941,7 @@
         <v>336</v>
       </c>
       <c r="BB17">
-        <v>2312887463.568</v>
+        <v>2312887463.5679998</v>
       </c>
       <c r="BC17">
         <v>16</v>
@@ -17913,7 +18950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -17954,7 +18991,7 @@
         <v>0.51</v>
       </c>
       <c r="N18">
-        <v>68.26000000000001</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="O18">
         <v>0.64</v>
@@ -18032,7 +19069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:56">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -18061,13 +19098,13 @@
         <v>13</v>
       </c>
       <c r="J19">
-        <v>10.265</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="K19">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L19">
-        <v>10.265</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="M19">
         <v>0.52</v>
@@ -18151,7 +19188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -18261,7 +19298,7 @@
         <v>336</v>
       </c>
       <c r="BB20">
-        <v>86739109222.27501</v>
+        <v>86739109222.275009</v>
       </c>
       <c r="BC20">
         <v>19</v>
@@ -18270,7 +19307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -18299,19 +19336,19 @@
         <v>90.48</v>
       </c>
       <c r="J21">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="K21">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L21">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="M21">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N21">
-        <v>73.04000000000001</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="O21">
         <v>0.92</v>
@@ -18389,7 +19426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -18418,16 +19455,16 @@
         <v>10.026</v>
       </c>
       <c r="J22">
-        <v>8.446999999999999</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="K22">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L22">
-        <v>8.446999999999999</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="M22">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N22">
         <v>53.7</v>
@@ -18499,7 +19536,7 @@
         <v>336</v>
       </c>
       <c r="BB22">
-        <v>17124193394.3143</v>
+        <v>17124193394.314301</v>
       </c>
       <c r="BC22">
         <v>21</v>
@@ -18508,7 +19545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:56">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -18540,7 +19577,7 @@
         <v>26.96</v>
       </c>
       <c r="K23">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L23">
         <v>26.96</v>
@@ -18618,7 +19655,7 @@
         <v>336</v>
       </c>
       <c r="BB23">
-        <v>4110298434.620001</v>
+        <v>4110298434.6200008</v>
       </c>
       <c r="BC23">
         <v>22</v>
@@ -18627,7 +19664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -18740,7 +19777,7 @@
         <v>336</v>
       </c>
       <c r="BB24">
-        <v>36516490855.83</v>
+        <v>36516490855.830002</v>
       </c>
       <c r="BC24">
         <v>23</v>
@@ -18749,7 +19786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:56">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -18778,13 +19815,13 @@
         <v>122.5</v>
       </c>
       <c r="J25">
-        <v>128.8</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="K25">
         <v>0.75</v>
       </c>
       <c r="L25">
-        <v>128.8</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="M25">
         <v>0.66</v>
@@ -18859,7 +19896,7 @@
         <v>336</v>
       </c>
       <c r="BB25">
-        <v>9809008204.800001</v>
+        <v>9809008204.8000011</v>
       </c>
       <c r="BC25">
         <v>24</v>
@@ -18868,7 +19905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:56">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -18978,7 +20015,7 @@
         <v>336</v>
       </c>
       <c r="BB26">
-        <v>62529945690.96</v>
+        <v>62529945690.959999</v>
       </c>
       <c r="BC26">
         <v>25</v>
@@ -18987,7 +20024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -19013,16 +20050,16 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>21.995</v>
+        <v>21.995000000000001</v>
       </c>
       <c r="J27">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="K27">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L27">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="M27">
         <v>0.73</v>
@@ -19097,7 +20134,7 @@
         <v>336</v>
       </c>
       <c r="BB27">
-        <v>11998849040.64</v>
+        <v>11998849040.639999</v>
       </c>
       <c r="BC27">
         <v>25</v>
@@ -19106,7 +20143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -19150,7 +20187,7 @@
         <v>51.19</v>
       </c>
       <c r="O28">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="P28" t="s">
         <v>310</v>
@@ -19192,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -19225,7 +20262,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:56">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -19251,13 +20288,13 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>144.8</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="J29">
         <v>128.5</v>
       </c>
       <c r="K29">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L29">
         <v>128.5</v>
@@ -19266,7 +20303,7 @@
         <v>0.74</v>
       </c>
       <c r="N29">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="O29">
         <v>0.91</v>
@@ -19344,7 +20381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:56">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -19370,7 +20407,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>13.735</v>
+        <v>13.734999999999999</v>
       </c>
       <c r="J30">
         <v>13.945</v>
@@ -19454,7 +20491,7 @@
         <v>336</v>
       </c>
       <c r="BB30">
-        <v>24111418027.48575</v>
+        <v>24111418027.485748</v>
       </c>
       <c r="BC30">
         <v>29</v>
@@ -19463,7 +20500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -19489,13 +20526,13 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2.365</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="J31">
         <v>2.54</v>
       </c>
       <c r="K31">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L31">
         <v>2.54</v>
@@ -19582,7 +20619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -19614,7 +20651,7 @@
         <v>31.02</v>
       </c>
       <c r="K32">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L32">
         <v>31.02</v>
@@ -19692,7 +20729,7 @@
         <v>336</v>
       </c>
       <c r="BB32">
-        <v>1362111216.84</v>
+        <v>1362111216.8399999</v>
       </c>
       <c r="BC32">
         <v>29</v>
@@ -19701,7 +20738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -19820,7 +20857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:56">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -19846,16 +20883,16 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1.3725</v>
+        <v>1.3725000000000001</v>
       </c>
       <c r="J34">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="K34">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L34">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="M34">
         <v>0.82</v>
@@ -19879,7 +20916,7 @@
         <v>336</v>
       </c>
       <c r="BB34">
-        <v>316012227.8152</v>
+        <v>316012227.81519997</v>
       </c>
       <c r="BC34">
         <v>32</v>
@@ -19888,7 +20925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:56">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -20007,7 +21044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:56">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -20075,7 +21112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -20185,7 +21222,7 @@
         <v>336</v>
       </c>
       <c r="BB37">
-        <v>5099001357.6</v>
+        <v>5099001357.6000004</v>
       </c>
       <c r="BC37">
         <v>36</v>
@@ -20194,7 +21231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:56">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -20226,13 +21263,13 @@
         <v>64.8</v>
       </c>
       <c r="K38">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L38">
         <v>64.8</v>
       </c>
       <c r="M38">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="N38">
         <v>57.97</v>
@@ -20313,7 +21350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:56">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -20339,16 +21376,16 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>75.76000000000001</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="J39">
-        <v>78.45999999999999</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="K39">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L39">
-        <v>78.45999999999999</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="M39">
         <v>0.97</v>
@@ -20423,7 +21460,7 @@
         <v>336</v>
       </c>
       <c r="BB39">
-        <v>50789100579.371</v>
+        <v>50789100579.371002</v>
       </c>
       <c r="BC39">
         <v>38</v>
@@ -20432,7 +21469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -20461,13 +21498,13 @@
         <v>87.2</v>
       </c>
       <c r="J40">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="K40">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L40">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="M40">
         <v>0.97</v>
@@ -20542,7 +21579,7 @@
         <v>336</v>
       </c>
       <c r="BB40">
-        <v>20318246054.7</v>
+        <v>20318246054.700001</v>
       </c>
       <c r="BC40">
         <v>38</v>
@@ -20551,7 +21588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -20577,7 +21614,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="J41">
         <v>171.5</v>
@@ -20670,7 +21707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:56">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -20780,7 +21817,7 @@
         <v>336</v>
       </c>
       <c r="BB42">
-        <v>6637559214.888</v>
+        <v>6637559214.8879995</v>
       </c>
       <c r="BC42">
         <v>41</v>
@@ -20789,7 +21826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:56">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -20899,7 +21936,7 @@
         <v>336</v>
       </c>
       <c r="BB43">
-        <v>4261130501.84</v>
+        <v>4261130501.8400002</v>
       </c>
       <c r="BC43">
         <v>41</v>
@@ -20908,7 +21945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:56">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -21027,7 +22064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:56">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -21083,7 +22120,7 @@
         <v>336</v>
       </c>
       <c r="BB45">
-        <v>594802639.2960001</v>
+        <v>594802639.29600012</v>
       </c>
       <c r="BC45">
         <v>44</v>
@@ -21092,7 +22129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:56">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -21130,7 +22167,7 @@
         <v>202.75</v>
       </c>
       <c r="M46">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N46">
         <v>56.15</v>
@@ -21211,7 +22248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:56">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -21249,7 +22286,7 @@
         <v>34.32</v>
       </c>
       <c r="M47">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N47">
         <v>55.34</v>
@@ -21321,7 +22358,7 @@
         <v>336</v>
       </c>
       <c r="BB47">
-        <v>6596972711.472</v>
+        <v>6596972711.4720001</v>
       </c>
       <c r="BC47">
         <v>45</v>
@@ -21330,7 +22367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:56">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -21362,13 +22399,13 @@
         <v>131.5</v>
       </c>
       <c r="K48">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L48">
         <v>131.5</v>
       </c>
       <c r="M48">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="N48">
         <v>77.88</v>
@@ -21440,7 +22477,7 @@
         <v>336</v>
       </c>
       <c r="BB48">
-        <v>19152363571.025</v>
+        <v>19152363571.025002</v>
       </c>
       <c r="BC48">
         <v>47</v>
@@ -21449,7 +22486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:56">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -21475,7 +22512,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>130.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="J49">
         <v>120.5</v>
@@ -21559,7 +22596,7 @@
         <v>336</v>
       </c>
       <c r="BB49">
-        <v>3577425762.300001</v>
+        <v>3577425762.3000011</v>
       </c>
       <c r="BC49">
         <v>48</v>
@@ -21568,7 +22605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:56">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -21678,7 +22715,7 @@
         <v>336</v>
       </c>
       <c r="BB50">
-        <v>128294334417.6</v>
+        <v>128294334417.60001</v>
       </c>
       <c r="BC50">
         <v>49</v>
@@ -21687,7 +22724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:56">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -21746,7 +22783,7 @@
         <v>336</v>
       </c>
       <c r="BB51">
-        <v>633051661.6800001</v>
+        <v>633051661.68000007</v>
       </c>
       <c r="BC51">
         <v>50</v>
@@ -21755,7 +22792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:56">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -21832,7 +22869,7 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0.009599999999999999</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="AA52" t="s">
         <v>313</v>
@@ -21850,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0.009599999999999999</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -21868,7 +22905,7 @@
         <v>336</v>
       </c>
       <c r="BB52">
-        <v>1910434050.304</v>
+        <v>1910434050.3039999</v>
       </c>
       <c r="BC52">
         <v>51</v>
@@ -21877,7 +22914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:56">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -21996,7 +23033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:56">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -22010,7 +23047,7 @@
         <v>55337770</v>
       </c>
       <c r="E54">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -22028,7 +23065,7 @@
         <v>48</v>
       </c>
       <c r="K54">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L54">
         <v>48</v>
@@ -22115,7 +23152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:56">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -22141,7 +23178,7 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>75.45999999999999</v>
+        <v>75.459999999999994</v>
       </c>
       <c r="J55">
         <v>81.22</v>
@@ -22234,7 +23271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:56">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -22266,7 +23303,7 @@
         <v>23.3</v>
       </c>
       <c r="K56">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L56">
         <v>23.3</v>
@@ -22302,7 +23339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:56">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -22421,7 +23458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:56">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -22531,7 +23568,7 @@
         <v>336</v>
       </c>
       <c r="BB58">
-        <v>856263337.056</v>
+        <v>856263337.05599999</v>
       </c>
       <c r="BC58">
         <v>57</v>
@@ -22540,7 +23577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:56">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -22566,16 +23603,16 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2.744</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="J59">
-        <v>2.594</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="K59">
         <v>0.5</v>
       </c>
       <c r="L59">
-        <v>2.594</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="M59">
         <v>1.47</v>
@@ -22608,7 +23645,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:56">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -22634,7 +23671,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>32.48</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="J60">
         <v>33.56</v>
@@ -22718,7 +23755,7 @@
         <v>336</v>
       </c>
       <c r="BB60">
-        <v>4489792080.360001</v>
+        <v>4489792080.3600006</v>
       </c>
       <c r="BC60">
         <v>59</v>
@@ -22727,7 +23764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:56">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -22759,7 +23796,7 @@
         <v>28.5</v>
       </c>
       <c r="K61">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L61">
         <v>28.5</v>
@@ -22804,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.0302</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AA61" t="s">
         <v>313</v>
@@ -22822,7 +23859,7 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>0.0302</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -22840,7 +23877,7 @@
         <v>336</v>
       </c>
       <c r="BB61">
-        <v>17968250261.325</v>
+        <v>17968250261.325001</v>
       </c>
       <c r="BC61">
         <v>60</v>
@@ -22849,7 +23886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:56">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -22875,13 +23912,13 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>291.85</v>
+        <v>291.85000000000002</v>
       </c>
       <c r="J62">
         <v>296.2</v>
       </c>
       <c r="K62">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L62">
         <v>296.2</v>
@@ -22890,7 +23927,7 @@
         <v>1.56</v>
       </c>
       <c r="N62">
-        <v>66.23999999999999</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="O62">
         <v>0.9</v>
@@ -22968,7 +24005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:56">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>195</v>
       </c>
@@ -23078,7 +24115,7 @@
         <v>336</v>
       </c>
       <c r="BB63">
-        <v>9218130571.199999</v>
+        <v>9218130571.1999989</v>
       </c>
       <c r="BC63">
         <v>62</v>
@@ -23087,7 +24124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:56">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -23164,7 +24201,7 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AA64" t="s">
         <v>313</v>
@@ -23182,7 +24219,7 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -23200,7 +24237,7 @@
         <v>336</v>
       </c>
       <c r="BB64">
-        <v>95992889723.45999</v>
+        <v>95992889723.459991</v>
       </c>
       <c r="BC64">
         <v>63</v>
@@ -23209,7 +24246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:56">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>217</v>
       </c>
@@ -23319,7 +24356,7 @@
         <v>336</v>
       </c>
       <c r="BB65">
-        <v>67268829326.4</v>
+        <v>67268829326.400002</v>
       </c>
       <c r="BC65">
         <v>64</v>
@@ -23328,7 +24365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:56">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -23342,7 +24379,7 @@
         <v>550000000</v>
       </c>
       <c r="E66">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -23360,7 +24397,7 @@
         <v>15.23</v>
       </c>
       <c r="K66">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L66">
         <v>15.23</v>
@@ -23447,7 +24484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:56">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -23491,7 +24528,7 @@
         <v>48.04</v>
       </c>
       <c r="O67">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P67" t="s">
         <v>310</v>
@@ -23533,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="AD67">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -23566,7 +24603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:56">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -23598,7 +24635,7 @@
         <v>50.85</v>
       </c>
       <c r="K68">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L68">
         <v>50.85</v>
@@ -23610,7 +24647,7 @@
         <v>56.24</v>
       </c>
       <c r="O68">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P68" t="s">
         <v>310</v>
@@ -23652,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="AD68">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE68">
         <v>0</v>
@@ -23676,7 +24713,7 @@
         <v>336</v>
       </c>
       <c r="BB68">
-        <v>2707385279.445001</v>
+        <v>2707385279.4450011</v>
       </c>
       <c r="BC68">
         <v>67</v>
@@ -23685,7 +24722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:56">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -23717,7 +24754,7 @@
         <v>78.8</v>
       </c>
       <c r="K69">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L69">
         <v>78.8</v>
@@ -23804,7 +24841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:56">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -23830,16 +24867,16 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <v>18.455</v>
+        <v>18.454999999999998</v>
       </c>
       <c r="J70">
-        <v>18.425</v>
+        <v>18.425000000000001</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>18.425</v>
+        <v>18.425000000000001</v>
       </c>
       <c r="M70">
         <v>1.79</v>
@@ -23914,7 +24951,7 @@
         <v>336</v>
       </c>
       <c r="BB70">
-        <v>4419992854.2</v>
+        <v>4419992854.1999998</v>
       </c>
       <c r="BC70">
         <v>69</v>
@@ -23923,7 +24960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:56">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -23952,13 +24989,13 @@
         <v>2.09</v>
       </c>
       <c r="J71">
-        <v>3.225</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="K71">
         <v>0.35</v>
       </c>
       <c r="L71">
-        <v>3.225</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="M71">
         <v>1.88</v>
@@ -23982,7 +25019,7 @@
         <v>336</v>
       </c>
       <c r="BB71">
-        <v>926435843.4450002</v>
+        <v>926435843.44500017</v>
       </c>
       <c r="BC71">
         <v>70</v>
@@ -23991,7 +25028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:56">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -24032,7 +25069,7 @@
         <v>1.88</v>
       </c>
       <c r="N72">
-        <v>36.27</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="O72">
         <v>0.91</v>
@@ -24050,7 +25087,7 @@
         <v>336</v>
       </c>
       <c r="BB72">
-        <v>645610064.4</v>
+        <v>645610064.39999998</v>
       </c>
       <c r="BC72">
         <v>70</v>
@@ -24059,7 +25096,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:56">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -24088,13 +25125,13 @@
         <v>5.38</v>
       </c>
       <c r="J73">
-        <v>5.655</v>
+        <v>5.6550000000000002</v>
       </c>
       <c r="K73">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L73">
-        <v>5.655</v>
+        <v>5.6550000000000002</v>
       </c>
       <c r="M73">
         <v>1.89</v>
@@ -24169,7 +25206,7 @@
         <v>336</v>
       </c>
       <c r="BB73">
-        <v>2060030091.6</v>
+        <v>2060030091.5999999</v>
       </c>
       <c r="BC73">
         <v>72</v>
@@ -24178,7 +25215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:56">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>237</v>
       </c>
@@ -24207,13 +25244,13 @@
         <v>170</v>
       </c>
       <c r="J74">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="K74">
         <v>0.4</v>
       </c>
       <c r="L74">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="M74">
         <v>1.9</v>
@@ -24288,7 +25325,7 @@
         <v>336</v>
       </c>
       <c r="BB74">
-        <v>1116089446.68</v>
+        <v>1116089446.6800001</v>
       </c>
       <c r="BC74">
         <v>73</v>
@@ -24297,7 +25334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:56">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>234</v>
       </c>
@@ -24326,13 +25363,13 @@
         <v>7.97</v>
       </c>
       <c r="J75">
-        <v>8.154999999999999</v>
+        <v>8.1549999999999994</v>
       </c>
       <c r="K75">
         <v>0.45</v>
       </c>
       <c r="L75">
-        <v>8.154999999999999</v>
+        <v>8.1549999999999994</v>
       </c>
       <c r="M75">
         <v>1.95</v>
@@ -24407,7 +25444,7 @@
         <v>336</v>
       </c>
       <c r="BB75">
-        <v>774953830.5232499</v>
+        <v>774953830.52324986</v>
       </c>
       <c r="BC75">
         <v>74</v>
@@ -24416,7 +25453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:56">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -24526,7 +25563,7 @@
         <v>336</v>
       </c>
       <c r="BB76">
-        <v>33265871231.05</v>
+        <v>33265871231.049999</v>
       </c>
       <c r="BC76">
         <v>75</v>
@@ -24535,7 +25572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:56">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -24594,7 +25631,7 @@
         <v>336</v>
       </c>
       <c r="BB77">
-        <v>623980728.128</v>
+        <v>623980728.12800002</v>
       </c>
       <c r="BC77">
         <v>76</v>
@@ -24603,7 +25640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:56">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>241</v>
       </c>
@@ -24662,7 +25699,7 @@
         <v>336</v>
       </c>
       <c r="BB78">
-        <v>569233645.336</v>
+        <v>569233645.33599997</v>
       </c>
       <c r="BC78">
         <v>77</v>
@@ -24671,7 +25708,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:56">
+    <row r="79" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -24703,7 +25740,7 @@
         <v>77.3</v>
       </c>
       <c r="K79">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L79">
         <v>77.3</v>
@@ -24781,7 +25818,7 @@
         <v>336</v>
       </c>
       <c r="BB79">
-        <v>2064468322.44</v>
+        <v>2064468322.4400001</v>
       </c>
       <c r="BC79">
         <v>78</v>
@@ -24790,7 +25827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:56">
+    <row r="80" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>212</v>
       </c>
@@ -24804,7 +25841,7 @@
         <v>17424747</v>
       </c>
       <c r="E80">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -24822,7 +25859,7 @@
         <v>76</v>
       </c>
       <c r="K80">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L80">
         <v>76</v>
@@ -24900,7 +25937,7 @@
         <v>336</v>
       </c>
       <c r="BB80">
-        <v>728354424.6</v>
+        <v>728354424.60000002</v>
       </c>
       <c r="BC80">
         <v>79</v>
@@ -24909,7 +25946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:56">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -24923,7 +25960,7 @@
         <v>16721708</v>
       </c>
       <c r="E81">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -24941,7 +25978,7 @@
         <v>199.9</v>
       </c>
       <c r="K81">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L81">
         <v>199.9</v>
@@ -25019,7 +26056,7 @@
         <v>336</v>
       </c>
       <c r="BB81">
-        <v>1838468186.06</v>
+        <v>1838468186.0599999</v>
       </c>
       <c r="BC81">
         <v>80</v>
@@ -25028,7 +26065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:56">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -25060,13 +26097,13 @@
         <v>24.64</v>
       </c>
       <c r="K82">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L82">
         <v>24.64</v>
       </c>
       <c r="M82">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N82">
         <v>55.2</v>
@@ -25138,7 +26175,7 @@
         <v>336</v>
       </c>
       <c r="BB82">
-        <v>4081988347.36</v>
+        <v>4081988347.3600001</v>
       </c>
       <c r="BC82">
         <v>81</v>
@@ -25147,7 +26184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:56">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>226</v>
       </c>
@@ -25185,7 +26222,7 @@
         <v>28.26</v>
       </c>
       <c r="M83">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="N83">
         <v>56.81</v>
@@ -25257,7 +26294,7 @@
         <v>336</v>
       </c>
       <c r="BB83">
-        <v>936140533.9200001</v>
+        <v>936140533.92000008</v>
       </c>
       <c r="BC83">
         <v>82</v>
@@ -25266,7 +26303,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:56">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>218</v>
       </c>
@@ -25376,7 +26413,7 @@
         <v>336</v>
       </c>
       <c r="BB84">
-        <v>1093243359.6</v>
+        <v>1093243359.5999999</v>
       </c>
       <c r="BC84">
         <v>83</v>
@@ -25385,7 +26422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:56">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>238</v>
       </c>
@@ -25495,7 +26532,7 @@
         <v>336</v>
       </c>
       <c r="BB85">
-        <v>699325237.908</v>
+        <v>699325237.90799999</v>
       </c>
       <c r="BC85">
         <v>83</v>
@@ -25504,7 +26541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:56">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>219</v>
       </c>
@@ -25623,7 +26660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:56">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>242</v>
       </c>
@@ -25664,7 +26701,7 @@
         <v>2.39</v>
       </c>
       <c r="N87">
-        <v>33.59</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="O87">
         <v>0.95</v>
@@ -25742,7 +26779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:56">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -25780,7 +26817,7 @@
         <v>22.48</v>
       </c>
       <c r="M88">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N88">
         <v>62.81</v>
@@ -25852,7 +26889,7 @@
         <v>336</v>
       </c>
       <c r="BB88">
-        <v>7789825226.759999</v>
+        <v>7789825226.7599993</v>
       </c>
       <c r="BC88">
         <v>87</v>
@@ -25861,7 +26898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:56">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>210</v>
       </c>
@@ -25980,7 +27017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:56">
+    <row r="90" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>221</v>
       </c>
@@ -26090,7 +27127,7 @@
         <v>336</v>
       </c>
       <c r="BB90">
-        <v>956512737.6210002</v>
+        <v>956512737.62100017</v>
       </c>
       <c r="BC90">
         <v>88</v>
@@ -26101,18 +27138,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26312,7 +27352,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -26344,7 +27384,7 @@
         <v>119.6</v>
       </c>
       <c r="K2">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L2">
         <v>119.6</v>
@@ -26422,7 +27462,7 @@
         <v>336</v>
       </c>
       <c r="BB2">
-        <v>4447094233.14</v>
+        <v>4447094233.1400003</v>
       </c>
       <c r="BC2">
         <v>1</v>
@@ -26434,13 +27474,13 @@
         <v>348</v>
       </c>
       <c r="BF2">
-        <v>4685065830.900001</v>
+        <v>4685065830.9000006</v>
       </c>
       <c r="BG2">
-        <v>0.003994742539766572</v>
+        <v>3.9947425397665716E-3</v>
       </c>
       <c r="BH2">
-        <v>0.004074800575493753</v>
+        <v>4.0748005754937533E-3</v>
       </c>
       <c r="BI2">
         <v>1</v>
@@ -26449,7 +27489,7 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>39683074.39348128</v>
+        <v>39683074.393481277</v>
       </c>
       <c r="BL2">
         <v>39683074</v>
@@ -26461,7 +27501,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -26487,19 +27527,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>39.91</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="J3">
         <v>38.14</v>
       </c>
       <c r="K3">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L3">
         <v>38.14</v>
       </c>
       <c r="M3">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N3">
         <v>61.26</v>
@@ -26571,7 +27611,7 @@
         <v>336</v>
       </c>
       <c r="BB3">
-        <v>70291615633.99901</v>
+        <v>70291615633.999008</v>
       </c>
       <c r="BC3">
         <v>2</v>
@@ -26583,13 +27623,13 @@
         <v>349</v>
       </c>
       <c r="BF3">
-        <v>73553706868.1935</v>
+        <v>73553706868.193497</v>
       </c>
       <c r="BG3">
-        <v>0.06271590034999548</v>
+        <v>6.2715900349995482E-2</v>
       </c>
       <c r="BH3">
-        <v>0.06397278029680069</v>
+        <v>6.3972780296800688E-2</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -26598,7 +27638,7 @@
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>1953640586.734137</v>
+        <v>1953640586.7341371</v>
       </c>
       <c r="BL3">
         <v>1953640587</v>
@@ -26610,7 +27650,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -26639,13 +27679,13 @@
         <v>291.3</v>
       </c>
       <c r="J4">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="K4">
         <v>0.75</v>
       </c>
       <c r="L4">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="M4">
         <v>0.33</v>
@@ -26720,7 +27760,7 @@
         <v>336</v>
       </c>
       <c r="BB4">
-        <v>91949453008.34999</v>
+        <v>91949453008.349991</v>
       </c>
       <c r="BC4">
         <v>3</v>
@@ -26732,13 +27772,13 @@
         <v>350</v>
       </c>
       <c r="BF4">
-        <v>92553129444.82501</v>
+        <v>92553129444.825012</v>
       </c>
       <c r="BG4">
-        <v>0.07891584381659376</v>
+        <v>7.8915843816593764E-2</v>
       </c>
       <c r="BH4">
-        <v>0.08049738439920132</v>
+        <v>8.0497384399201316E-2</v>
       </c>
       <c r="BI4">
         <v>1</v>
@@ -26747,7 +27787,7 @@
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>323976399.277766</v>
+        <v>323976399.27776599</v>
       </c>
       <c r="BL4">
         <v>323976399</v>
@@ -26759,7 +27799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -26773,7 +27813,7 @@
         <v>19412501</v>
       </c>
       <c r="E5">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -26788,13 +27828,13 @@
         <v>50.25</v>
       </c>
       <c r="J5">
-        <v>42.235</v>
+        <v>42.234999999999999</v>
       </c>
       <c r="K5">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L5">
-        <v>42.235</v>
+        <v>42.234999999999999</v>
       </c>
       <c r="M5">
         <v>0.33</v>
@@ -26818,7 +27858,7 @@
         <v>336</v>
       </c>
       <c r="BB5">
-        <v>696903932.7747501</v>
+        <v>696903932.77475011</v>
       </c>
       <c r="BC5">
         <v>3</v>
@@ -26833,10 +27873,10 @@
         <v>829156448.9625001</v>
       </c>
       <c r="BG5">
-        <v>0.0007069839909071252</v>
+        <v>7.0698399090712524E-4</v>
       </c>
       <c r="BH5">
-        <v>0.0007211525509680436</v>
+        <v>7.2115255096804362E-4</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -26845,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>19887709.95740457</v>
+        <v>19887709.957404569</v>
       </c>
       <c r="BL5">
         <v>19887710</v>
@@ -26857,7 +27897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -26967,7 +28007,7 @@
         <v>336</v>
       </c>
       <c r="BB6">
-        <v>6909988673.5425</v>
+        <v>6909988673.5424995</v>
       </c>
       <c r="BC6">
         <v>5</v>
@@ -26979,13 +28019,13 @@
         <v>352</v>
       </c>
       <c r="BF6">
-        <v>7506566728.447499</v>
+        <v>7506566728.4474993</v>
       </c>
       <c r="BG6">
-        <v>0.006400508022736822</v>
+        <v>6.400508022736822E-3</v>
       </c>
       <c r="BH6">
-        <v>0.006528779643462177</v>
+        <v>6.528779643462177E-3</v>
       </c>
       <c r="BI6">
         <v>1</v>
@@ -26994,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>246814371.6338154</v>
+        <v>246814371.63381541</v>
       </c>
       <c r="BL6">
         <v>246814372</v>
@@ -27006,7 +28046,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -27020,7 +28060,7 @@
         <v>262769869</v>
       </c>
       <c r="E7">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -27038,7 +28078,7 @@
         <v>10.225</v>
       </c>
       <c r="K7">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L7">
         <v>10.225</v>
@@ -27116,7 +28156,7 @@
         <v>336</v>
       </c>
       <c r="BB7">
-        <v>1477752050.78875</v>
+        <v>1477752050.7887499</v>
       </c>
       <c r="BC7">
         <v>6</v>
@@ -27131,10 +28171,10 @@
         <v>1544955444.7855</v>
       </c>
       <c r="BG7">
-        <v>0.001317313237441327</v>
+        <v>1.3173132374413271E-3</v>
       </c>
       <c r="BH7">
-        <v>0.001343713314336678</v>
+        <v>1.3437133143366781E-3</v>
       </c>
       <c r="BI7">
         <v>1</v>
@@ -27143,7 +28183,7 @@
         <v>0</v>
       </c>
       <c r="BK7">
-        <v>153064132.9653645</v>
+        <v>153064132.96536449</v>
       </c>
       <c r="BL7">
         <v>153064133</v>
@@ -27155,7 +28195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -27277,13 +28317,13 @@
         <v>354</v>
       </c>
       <c r="BF8">
-        <v>4040277796.674</v>
+        <v>4040277796.6739998</v>
       </c>
       <c r="BG8">
-        <v>0.003444961110343142</v>
+        <v>3.444961110343142E-3</v>
       </c>
       <c r="BH8">
-        <v>0.003514001058951875</v>
+        <v>3.5140010589518752E-3</v>
       </c>
       <c r="BI8">
         <v>1</v>
@@ -27292,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="BK8">
-        <v>384310643.3477873</v>
+        <v>384310643.34778732</v>
       </c>
       <c r="BL8">
         <v>384310643</v>
@@ -27304,7 +28344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -27333,13 +28373,13 @@
         <v>83.64</v>
       </c>
       <c r="J9">
-        <v>86.31999999999999</v>
+        <v>86.32</v>
       </c>
       <c r="K9">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L9">
-        <v>86.31999999999999</v>
+        <v>86.32</v>
       </c>
       <c r="M9">
         <v>0.39</v>
@@ -27426,13 +28466,13 @@
         <v>355</v>
       </c>
       <c r="BF9">
-        <v>97532229656.63402</v>
+        <v>97532229656.634018</v>
       </c>
       <c r="BG9">
-        <v>0.08316129609918277</v>
+        <v>8.3161296099182769E-2</v>
       </c>
       <c r="BH9">
-        <v>0.08482791915384806</v>
+        <v>8.4827919153848061E-2</v>
       </c>
       <c r="BI9">
         <v>1</v>
@@ -27441,7 +28481,7 @@
         <v>0</v>
       </c>
       <c r="BK9">
-        <v>1144609942.761963</v>
+        <v>1144609942.7619629</v>
       </c>
       <c r="BL9">
         <v>1144609943</v>
@@ -27453,7 +28493,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -27497,7 +28537,7 @@
         <v>61.33</v>
       </c>
       <c r="O10">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P10" t="s">
         <v>310</v>
@@ -27539,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -27563,7 +28603,7 @@
         <v>336</v>
       </c>
       <c r="BB10">
-        <v>813437120.1439999</v>
+        <v>813437120.14399993</v>
       </c>
       <c r="BC10">
         <v>8</v>
@@ -27575,13 +28615,13 @@
         <v>356</v>
       </c>
       <c r="BF10">
-        <v>875654690.24</v>
+        <v>875654690.24000001</v>
       </c>
       <c r="BG10">
-        <v>0.0007466309263312699</v>
+        <v>7.4663092633126991E-4</v>
       </c>
       <c r="BH10">
-        <v>0.0007615940446749969</v>
+        <v>7.6159404467499687E-4</v>
       </c>
       <c r="BI10">
         <v>1</v>
@@ -27590,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="BK10">
-        <v>62823043.85583696</v>
+        <v>62823043.855836958</v>
       </c>
       <c r="BL10">
         <v>62823044</v>
@@ -27602,7 +28642,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -27616,7 +28656,7 @@
         <v>147454887</v>
       </c>
       <c r="E11">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -27634,7 +28674,7 @@
         <v>47.24</v>
       </c>
       <c r="K11">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L11">
         <v>47.24</v>
@@ -27712,7 +28752,7 @@
         <v>336</v>
       </c>
       <c r="BB11">
-        <v>3831172874.034</v>
+        <v>3831172874.0339999</v>
       </c>
       <c r="BC11">
         <v>10</v>
@@ -27724,13 +28764,13 @@
         <v>357</v>
       </c>
       <c r="BF11">
-        <v>3664106487.063</v>
+        <v>3664106487.0630002</v>
       </c>
       <c r="BG11">
-        <v>0.003124216944309921</v>
+        <v>3.124216944309921E-3</v>
       </c>
       <c r="BH11">
-        <v>0.003186828907222967</v>
+        <v>3.1868289072229669E-3</v>
       </c>
       <c r="BI11">
         <v>1</v>
@@ -27739,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="BK11">
-        <v>78574023.24299309</v>
+        <v>78574023.242993087</v>
       </c>
       <c r="BL11">
         <v>78574023</v>
@@ -27751,7 +28791,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -27783,7 +28823,7 @@
         <v>70.47</v>
       </c>
       <c r="K12">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L12">
         <v>70.47</v>
@@ -27861,7 +28901,7 @@
         <v>336</v>
       </c>
       <c r="BB12">
-        <v>75703816586.1015</v>
+        <v>75703816586.101501</v>
       </c>
       <c r="BC12">
         <v>11</v>
@@ -27873,13 +28913,13 @@
         <v>358</v>
       </c>
       <c r="BF12">
-        <v>84512831713.19151</v>
+        <v>84512831713.191513</v>
       </c>
       <c r="BG12">
-        <v>0.07206024764351396</v>
+        <v>7.2060247643513958E-2</v>
       </c>
       <c r="BH12">
-        <v>0.07350439625207263</v>
+        <v>7.3504396252072626E-2</v>
       </c>
       <c r="BI12">
         <v>1</v>
@@ -27900,7 +28940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -27914,7 +28954,7 @@
         <v>736314789</v>
       </c>
       <c r="E13">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -27929,13 +28969,13 @@
         <v>14.115</v>
       </c>
       <c r="J13">
-        <v>12.985</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="K13">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L13">
-        <v>12.985</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="M13">
         <v>0.44</v>
@@ -28010,7 +29050,7 @@
         <v>336</v>
       </c>
       <c r="BB13">
-        <v>9082995158.40675</v>
+        <v>9082995158.4067497</v>
       </c>
       <c r="BC13">
         <v>12</v>
@@ -28022,13 +29062,13 @@
         <v>359</v>
       </c>
       <c r="BF13">
-        <v>9873429084.398251</v>
+        <v>9873429084.3982506</v>
       </c>
       <c r="BG13">
-        <v>0.008418623899941538</v>
+        <v>8.418623899941538E-3</v>
       </c>
       <c r="BH13">
-        <v>0.008587340278092558</v>
+        <v>8.5873402780925583E-3</v>
       </c>
       <c r="BI13">
         <v>1</v>
@@ -28049,7 +29089,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -28090,7 +29130,7 @@
         <v>0.46</v>
       </c>
       <c r="N14">
-        <v>71.70999999999999</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="O14">
         <v>0.78</v>
@@ -28159,7 +29199,7 @@
         <v>336</v>
       </c>
       <c r="BB14">
-        <v>993319180.58</v>
+        <v>993319180.58000004</v>
       </c>
       <c r="BC14">
         <v>13</v>
@@ -28171,13 +29211,13 @@
         <v>360</v>
       </c>
       <c r="BF14">
-        <v>989563720.54</v>
+        <v>989563720.53999996</v>
       </c>
       <c r="BG14">
-        <v>0.000843755975461168</v>
+        <v>8.4375597546116796E-4</v>
       </c>
       <c r="BH14">
-        <v>0.000860665562338434</v>
+        <v>8.60665562338434E-4</v>
       </c>
       <c r="BI14">
         <v>1</v>
@@ -28186,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="BK14">
-        <v>94749928.35907538</v>
+        <v>94749928.359075382</v>
       </c>
       <c r="BL14">
         <v>94749928</v>
@@ -28198,7 +29238,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -28242,7 +29282,7 @@
         <v>70.36</v>
       </c>
       <c r="O15">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P15" t="s">
         <v>310</v>
@@ -28284,7 +29324,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -28308,7 +29348,7 @@
         <v>336</v>
       </c>
       <c r="BB15">
-        <v>15789740469.12</v>
+        <v>15789740469.120001</v>
       </c>
       <c r="BC15">
         <v>14</v>
@@ -28320,13 +29360,13 @@
         <v>361</v>
       </c>
       <c r="BF15">
-        <v>15547752109.44</v>
+        <v>15547752109.440001</v>
       </c>
       <c r="BG15">
-        <v>0.01325686105405145</v>
+        <v>1.3256861054051451E-2</v>
       </c>
       <c r="BH15">
-        <v>0.01352253981690798</v>
+        <v>1.3522539816907981E-2</v>
       </c>
       <c r="BI15">
         <v>1</v>
@@ -28335,7 +29375,7 @@
         <v>0</v>
       </c>
       <c r="BK15">
-        <v>670510192.6830453</v>
+        <v>670510192.68304527</v>
       </c>
       <c r="BL15">
         <v>670510193</v>
@@ -28347,7 +29387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -28424,7 +29464,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.0013</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -28439,7 +29479,7 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.0013</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -28457,7 +29497,7 @@
         <v>336</v>
       </c>
       <c r="BB16">
-        <v>2641100023.696</v>
+        <v>2641100023.6960001</v>
       </c>
       <c r="BC16">
         <v>15</v>
@@ -28469,13 +29509,13 @@
         <v>362</v>
       </c>
       <c r="BF16">
-        <v>2631177293.488</v>
+        <v>2631177293.4879999</v>
       </c>
       <c r="BG16">
-        <v>0.002243485202415021</v>
+        <v>2.2434852024150209E-3</v>
       </c>
       <c r="BH16">
-        <v>0.002288446552664853</v>
+        <v>2.2884465526648531E-3</v>
       </c>
       <c r="BI16">
         <v>1</v>
@@ -28484,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="BK16">
-        <v>83451854.85030074</v>
+        <v>83451854.850300744</v>
       </c>
       <c r="BL16">
         <v>83451855</v>
@@ -28496,7 +29536,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -28525,13 +29565,13 @@
         <v>11.365</v>
       </c>
       <c r="J17">
-        <v>10.505</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="K17">
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>10.505</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="M17">
         <v>0.5</v>
@@ -28540,7 +29580,7 @@
         <v>61.55</v>
       </c>
       <c r="O17">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P17" t="s">
         <v>310</v>
@@ -28582,7 +29622,7 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -28606,7 +29646,7 @@
         <v>336</v>
       </c>
       <c r="BB17">
-        <v>2312887463.568</v>
+        <v>2312887463.5679998</v>
       </c>
       <c r="BC17">
         <v>16</v>
@@ -28621,10 +29661,10 @@
         <v>2502233795.664</v>
       </c>
       <c r="BG17">
-        <v>0.002133540946650982</v>
+        <v>2.1335409466509822E-3</v>
       </c>
       <c r="BH17">
-        <v>0.002176298920570966</v>
+        <v>2.1762989205709659E-3</v>
       </c>
       <c r="BI17">
         <v>1</v>
@@ -28633,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>241297388.631057</v>
+        <v>241297388.63105699</v>
       </c>
       <c r="BL17">
         <v>241297389</v>
@@ -28645,7 +29685,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -28686,7 +29726,7 @@
         <v>0.51</v>
       </c>
       <c r="N18">
-        <v>68.26000000000001</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="O18">
         <v>0.64</v>
@@ -28767,13 +29807,13 @@
         <v>364</v>
       </c>
       <c r="BF18">
-        <v>4128927166.2</v>
+        <v>4128927166.1999998</v>
       </c>
       <c r="BG18">
-        <v>0.003520548395634494</v>
+        <v>3.520548395634494E-3</v>
       </c>
       <c r="BH18">
-        <v>0.003591103177683964</v>
+        <v>3.5911031776839639E-3</v>
       </c>
       <c r="BI18">
         <v>1</v>
@@ -28782,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="BK18">
-        <v>63135283.16191806</v>
+        <v>63135283.161918059</v>
       </c>
       <c r="BL18">
         <v>63135283</v>
@@ -28794,7 +29834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -28823,13 +29863,13 @@
         <v>13</v>
       </c>
       <c r="J19">
-        <v>10.265</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="K19">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L19">
-        <v>10.265</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="M19">
         <v>0.52</v>
@@ -28919,10 +29959,10 @@
         <v>2177837207</v>
       </c>
       <c r="BG19">
-        <v>0.001856942730262142</v>
+        <v>1.8569427302621421E-3</v>
       </c>
       <c r="BH19">
-        <v>0.001894157440838044</v>
+        <v>1.8941574408380441E-3</v>
       </c>
       <c r="BI19">
         <v>1</v>
@@ -28931,7 +29971,7 @@
         <v>0</v>
       </c>
       <c r="BK19">
-        <v>214925157.0071177</v>
+        <v>214925157.00711769</v>
       </c>
       <c r="BL19">
         <v>214925157</v>
@@ -28943,7 +29983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:66">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -29053,7 +30093,7 @@
         <v>336</v>
       </c>
       <c r="BB20">
-        <v>86739109222.27501</v>
+        <v>86739109222.275009</v>
       </c>
       <c r="BC20">
         <v>19</v>
@@ -29065,13 +30105,13 @@
         <v>366</v>
       </c>
       <c r="BF20">
-        <v>89246505325.6575</v>
+        <v>89246505325.657501</v>
       </c>
       <c r="BG20">
-        <v>0.07609643582775892</v>
+        <v>7.6096435827758921E-2</v>
       </c>
       <c r="BH20">
-        <v>0.07762147307798579</v>
+        <v>7.7621473077985795E-2</v>
       </c>
       <c r="BI20">
         <v>1</v>
@@ -29092,7 +30132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:66">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -29121,19 +30161,19 @@
         <v>90.48</v>
       </c>
       <c r="J21">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="K21">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L21">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="M21">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N21">
-        <v>73.04000000000001</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="O21">
         <v>0.92</v>
@@ -29214,13 +30254,13 @@
         <v>367</v>
       </c>
       <c r="BF21">
-        <v>11016665464.116</v>
+        <v>11016665464.115999</v>
       </c>
       <c r="BG21">
-        <v>0.009393409562278736</v>
+        <v>9.3934095622787359E-3</v>
       </c>
       <c r="BH21">
-        <v>0.009581661473597384</v>
+        <v>9.5816614735973835E-3</v>
       </c>
       <c r="BI21">
         <v>1</v>
@@ -29229,7 +30269,7 @@
         <v>0</v>
       </c>
       <c r="BK21">
-        <v>124834157.9349607</v>
+        <v>124834157.93496069</v>
       </c>
       <c r="BL21">
         <v>124834158</v>
@@ -29241,7 +30281,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:66">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -29270,16 +30310,16 @@
         <v>10.026</v>
       </c>
       <c r="J22">
-        <v>8.446999999999999</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="K22">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L22">
-        <v>8.446999999999999</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="M22">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N22">
         <v>53.7</v>
@@ -29351,7 +30391,7 @@
         <v>336</v>
       </c>
       <c r="BB22">
-        <v>17124193394.3143</v>
+        <v>17124193394.314301</v>
       </c>
       <c r="BC22">
         <v>21</v>
@@ -29363,13 +30403,13 @@
         <v>368</v>
       </c>
       <c r="BF22">
-        <v>20325223507.9194</v>
+        <v>20325223507.919399</v>
       </c>
       <c r="BG22">
-        <v>0.01733039361834363</v>
+        <v>1.7330393618343629E-2</v>
       </c>
       <c r="BH22">
-        <v>0.01767770943598442</v>
+        <v>1.7677709435984418E-2</v>
       </c>
       <c r="BI22">
         <v>1</v>
@@ -29378,7 +30418,7 @@
         <v>0</v>
       </c>
       <c r="BK22">
-        <v>2437550539.772764</v>
+        <v>2437550539.7727642</v>
       </c>
       <c r="BL22">
         <v>2437550540</v>
@@ -29390,7 +30430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:66">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -29422,7 +30462,7 @@
         <v>26.96</v>
       </c>
       <c r="K23">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L23">
         <v>26.96</v>
@@ -29500,7 +30540,7 @@
         <v>336</v>
       </c>
       <c r="BB23">
-        <v>4110298434.620001</v>
+        <v>4110298434.6200008</v>
       </c>
       <c r="BC23">
         <v>22</v>
@@ -29512,13 +30552,13 @@
         <v>369</v>
       </c>
       <c r="BF23">
-        <v>4134691897.14</v>
+        <v>4134691897.1399999</v>
       </c>
       <c r="BG23">
-        <v>0.0035254637195056</v>
+        <v>3.5254637195056E-3</v>
       </c>
       <c r="BH23">
-        <v>0.003596117008823102</v>
+        <v>3.5961170088231022E-3</v>
       </c>
       <c r="BI23">
         <v>1</v>
@@ -29539,7 +30579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:66">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -29652,7 +30692,7 @@
         <v>336</v>
       </c>
       <c r="BB24">
-        <v>36516490855.83</v>
+        <v>36516490855.830002</v>
       </c>
       <c r="BC24">
         <v>23</v>
@@ -29664,13 +30704,13 @@
         <v>370</v>
       </c>
       <c r="BF24">
-        <v>39139569657.774</v>
+        <v>39139569657.774002</v>
       </c>
       <c r="BG24">
-        <v>0.03337253083379438</v>
+        <v>3.3372530833794378E-2</v>
       </c>
       <c r="BH24">
-        <v>0.03404134471584108</v>
+        <v>3.4041344715841082E-2</v>
       </c>
       <c r="BI24">
         <v>1</v>
@@ -29679,7 +30719,7 @@
         <v>0</v>
       </c>
       <c r="BK24">
-        <v>487692743.7050911</v>
+        <v>487692743.70509112</v>
       </c>
       <c r="BL24">
         <v>487692744</v>
@@ -29691,7 +30731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:66">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -29720,13 +30760,13 @@
         <v>122.5</v>
       </c>
       <c r="J25">
-        <v>128.8</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="K25">
         <v>0.75</v>
       </c>
       <c r="L25">
-        <v>128.8</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="M25">
         <v>0.66</v>
@@ -29801,7 +30841,7 @@
         <v>336</v>
       </c>
       <c r="BB25">
-        <v>9809008204.800001</v>
+        <v>9809008204.8000011</v>
       </c>
       <c r="BC25">
         <v>24</v>
@@ -29816,10 +30856,10 @@
         <v>9329219760</v>
       </c>
       <c r="BG25">
-        <v>0.007954601361693937</v>
+        <v>7.9546013616939373E-3</v>
       </c>
       <c r="BH25">
-        <v>0.008114018333794271</v>
+        <v>8.1140183337942706E-3</v>
       </c>
       <c r="BI25">
         <v>1</v>
@@ -29828,7 +30868,7 @@
         <v>0</v>
       </c>
       <c r="BK25">
-        <v>73375361.45562808</v>
+        <v>73375361.455628082</v>
       </c>
       <c r="BL25">
         <v>73375361</v>
@@ -29840,7 +30880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:66">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -29950,7 +30990,7 @@
         <v>336</v>
       </c>
       <c r="BB26">
-        <v>62529945690.96</v>
+        <v>62529945690.959999</v>
       </c>
       <c r="BC26">
         <v>25</v>
@@ -29962,13 +31002,13 @@
         <v>372</v>
       </c>
       <c r="BF26">
-        <v>62844693739.74</v>
+        <v>62844693739.739998</v>
       </c>
       <c r="BG26">
-        <v>0.05358481194116219</v>
+        <v>5.3584811941162193E-2</v>
       </c>
       <c r="BH26">
-        <v>0.05465869711551703</v>
+        <v>5.4658697115517033E-2</v>
       </c>
       <c r="BI26">
         <v>1</v>
@@ -29977,7 +31017,7 @@
         <v>0</v>
       </c>
       <c r="BK26">
-        <v>534088407.8695073</v>
+        <v>534088407.86950731</v>
       </c>
       <c r="BL26">
         <v>534088408</v>
@@ -29989,7 +31029,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:66">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -30015,16 +31055,16 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>21.995</v>
+        <v>21.995000000000001</v>
       </c>
       <c r="J27">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="K27">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L27">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="M27">
         <v>0.73</v>
@@ -30099,7 +31139,7 @@
         <v>336</v>
       </c>
       <c r="BB27">
-        <v>11998849040.64</v>
+        <v>11998849040.639999</v>
       </c>
       <c r="BC27">
         <v>25</v>
@@ -30111,13 +31151,13 @@
         <v>373</v>
       </c>
       <c r="BF27">
-        <v>14030552081.28</v>
+        <v>14030552081.280001</v>
       </c>
       <c r="BG27">
-        <v>0.01196321359794697</v>
+        <v>1.196321359794697E-2</v>
       </c>
       <c r="BH27">
-        <v>0.01220296656628028</v>
+        <v>1.220296656628028E-2</v>
       </c>
       <c r="BI27">
         <v>1</v>
@@ -30138,7 +31178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:66">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -30182,7 +31222,7 @@
         <v>51.19</v>
       </c>
       <c r="O28">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="P28" t="s">
         <v>310</v>
@@ -30224,7 +31264,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -30263,10 +31303,10 @@
         <v>1461324466.056</v>
       </c>
       <c r="BG28">
-        <v>0.001246004905727049</v>
+        <v>1.2460049057270489E-3</v>
       </c>
       <c r="BH28">
-        <v>0.001270975903048136</v>
+        <v>1.270975903048136E-3</v>
       </c>
       <c r="BI28">
         <v>1</v>
@@ -30275,7 +31315,7 @@
         <v>0</v>
       </c>
       <c r="BK28">
-        <v>99353044.5945123</v>
+        <v>99353044.594512299</v>
       </c>
       <c r="BL28">
         <v>99353045</v>
@@ -30287,7 +31327,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:66">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -30313,13 +31353,13 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>144.8</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="J29">
         <v>128.5</v>
       </c>
       <c r="K29">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L29">
         <v>128.5</v>
@@ -30328,7 +31368,7 @@
         <v>0.74</v>
       </c>
       <c r="N29">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="O29">
         <v>0.91</v>
@@ -30409,13 +31449,13 @@
         <v>375</v>
       </c>
       <c r="BF29">
-        <v>2082714973.36</v>
+        <v>2082714973.3599999</v>
       </c>
       <c r="BG29">
-        <v>0.001775836328150749</v>
+        <v>1.775836328150749E-3</v>
       </c>
       <c r="BH29">
-        <v>0.001811425597494006</v>
+        <v>1.8114255974940061E-3</v>
       </c>
       <c r="BI29">
         <v>1</v>
@@ -30436,7 +31476,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:66">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -30462,7 +31502,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>13.735</v>
+        <v>13.734999999999999</v>
       </c>
       <c r="J30">
         <v>13.945</v>
@@ -30546,7 +31586,7 @@
         <v>336</v>
       </c>
       <c r="BB30">
-        <v>24111418027.48575</v>
+        <v>24111418027.485748</v>
       </c>
       <c r="BC30">
         <v>29</v>
@@ -30558,13 +31598,13 @@
         <v>376</v>
       </c>
       <c r="BF30">
-        <v>23748320301.72225</v>
+        <v>23748320301.722252</v>
       </c>
       <c r="BG30">
-        <v>0.02024911255922902</v>
+        <v>2.024911255922902E-2</v>
       </c>
       <c r="BH30">
-        <v>0.02065492198513641</v>
+        <v>2.065492198513641E-2</v>
       </c>
       <c r="BI30">
         <v>1</v>
@@ -30585,7 +31625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:66">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -30611,13 +31651,13 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2.365</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="J31">
         <v>2.54</v>
       </c>
       <c r="K31">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L31">
         <v>2.54</v>
@@ -30710,10 +31750,10 @@
         <v>1705029455.9375</v>
       </c>
       <c r="BG31">
-        <v>0.001453801065988472</v>
+        <v>1.4538010659884721E-3</v>
       </c>
       <c r="BH31">
-        <v>0.001482936474972281</v>
+        <v>1.4829364749722809E-3</v>
       </c>
       <c r="BI31">
         <v>1</v>
@@ -30722,7 +31762,7 @@
         <v>0</v>
       </c>
       <c r="BK31">
-        <v>680015736.1915992</v>
+        <v>680015736.19159925</v>
       </c>
       <c r="BL31">
         <v>680015736</v>
@@ -30734,7 +31774,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -30766,7 +31806,7 @@
         <v>31.02</v>
       </c>
       <c r="K32">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L32">
         <v>31.02</v>
@@ -30844,7 +31884,7 @@
         <v>336</v>
       </c>
       <c r="BB32">
-        <v>1362111216.84</v>
+        <v>1362111216.8399999</v>
       </c>
       <c r="BC32">
         <v>29</v>
@@ -30856,13 +31896,13 @@
         <v>378</v>
       </c>
       <c r="BF32">
-        <v>1474522716.36</v>
+        <v>1474522716.3599999</v>
       </c>
       <c r="BG32">
-        <v>0.001257258453455694</v>
+        <v>1.257258453455694E-3</v>
       </c>
       <c r="BH32">
-        <v>0.00128245498143793</v>
+        <v>1.28245498143793E-3</v>
       </c>
       <c r="BI32">
         <v>1</v>
@@ -30871,7 +31911,7 @@
         <v>0</v>
       </c>
       <c r="BK32">
-        <v>48153789.21230193</v>
+        <v>48153789.212301932</v>
       </c>
       <c r="BL32">
         <v>48153789</v>
@@ -30883,7 +31923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:66">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -31005,13 +32045,13 @@
         <v>379</v>
       </c>
       <c r="BF33">
-        <v>45480785261.148</v>
+        <v>45480785261.148003</v>
       </c>
       <c r="BG33">
-        <v>0.03877939695669014</v>
+        <v>3.8779396956690138E-2</v>
       </c>
       <c r="BH33">
-        <v>0.03955656903126861</v>
+        <v>3.9556569031268612E-2</v>
       </c>
       <c r="BI33">
         <v>1</v>
@@ -31020,7 +32060,7 @@
         <v>0</v>
       </c>
       <c r="BK33">
-        <v>814878657.8961407</v>
+        <v>814878657.89614069</v>
       </c>
       <c r="BL33">
         <v>814878658</v>
@@ -31032,7 +32072,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:66">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -31058,16 +32098,16 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1.3725</v>
+        <v>1.3725000000000001</v>
       </c>
       <c r="J34">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="K34">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L34">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="M34">
         <v>0.82</v>
@@ -31091,7 +32131,7 @@
         <v>336</v>
       </c>
       <c r="BB34">
-        <v>316012227.8152</v>
+        <v>316012227.81519997</v>
       </c>
       <c r="BC34">
         <v>32</v>
@@ -31103,13 +32143,13 @@
         <v>380</v>
       </c>
       <c r="BF34">
-        <v>272441446.40475</v>
+        <v>272441446.40474999</v>
       </c>
       <c r="BG34">
-        <v>0.0002322984296977361</v>
+        <v>2.3229842969773611E-4</v>
       </c>
       <c r="BH34">
-        <v>0.0002369538876650464</v>
+        <v>2.369538876650464E-4</v>
       </c>
       <c r="BI34">
         <v>1</v>
@@ -31118,7 +32158,7 @@
         <v>0</v>
       </c>
       <c r="BK34">
-        <v>173360801.8608604</v>
+        <v>173360801.86086041</v>
       </c>
       <c r="BL34">
         <v>173360802</v>
@@ -31130,7 +32170,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:66">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -31252,13 +32292,13 @@
         <v>381</v>
       </c>
       <c r="BF35">
-        <v>1142515584.15</v>
+        <v>1142515584.1500001</v>
       </c>
       <c r="BG35">
-        <v>0.000974171072741043</v>
+        <v>9.7417107274104303E-4</v>
       </c>
       <c r="BH35">
-        <v>0.0009936942890108071</v>
+        <v>9.9369428901080708E-4</v>
       </c>
       <c r="BI35">
         <v>1</v>
@@ -31267,7 +32307,7 @@
         <v>0</v>
       </c>
       <c r="BK35">
-        <v>23888514.51839001</v>
+        <v>23888514.518390011</v>
       </c>
       <c r="BL35">
         <v>23888515</v>
@@ -31279,7 +32319,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:66">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -31350,13 +32390,13 @@
         <v>382</v>
       </c>
       <c r="BF36">
-        <v>701420632.6050001</v>
+        <v>701420632.60500014</v>
       </c>
       <c r="BG36">
-        <v>0.0005980694701997199</v>
+        <v>5.9806947019971988E-4</v>
       </c>
       <c r="BH36">
-        <v>0.0006100552906965231</v>
+        <v>6.1005529069652314E-4</v>
       </c>
       <c r="BI36">
         <v>1</v>
@@ -31377,7 +32417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:66">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -31487,7 +32527,7 @@
         <v>336</v>
       </c>
       <c r="BB37">
-        <v>5099001357.6</v>
+        <v>5099001357.6000004</v>
       </c>
       <c r="BC37">
         <v>36</v>
@@ -31502,10 +32542,10 @@
         <v>5042187972</v>
       </c>
       <c r="BG37">
-        <v>0.004299244346237589</v>
+        <v>4.2992443462375888E-3</v>
       </c>
       <c r="BH37">
-        <v>0.004385404856970049</v>
+        <v>4.3854048569700486E-3</v>
       </c>
       <c r="BI37">
         <v>1</v>
@@ -31514,7 +32554,7 @@
         <v>0</v>
       </c>
       <c r="BK37">
-        <v>47426832.67589691</v>
+        <v>47426832.675896913</v>
       </c>
       <c r="BL37">
         <v>47426833</v>
@@ -31526,7 +32566,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:66">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -31558,13 +32598,13 @@
         <v>64.8</v>
       </c>
       <c r="K38">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L38">
         <v>64.8</v>
       </c>
       <c r="M38">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="N38">
         <v>57.97</v>
@@ -31648,13 +32688,13 @@
         <v>384</v>
       </c>
       <c r="BF38">
-        <v>2126856521.295</v>
+        <v>2126856521.2950001</v>
       </c>
       <c r="BG38">
-        <v>0.001813473818352934</v>
+        <v>1.8134738183529339E-3</v>
       </c>
       <c r="BH38">
-        <v>0.001849817374988875</v>
+        <v>1.8498173749888749E-3</v>
       </c>
       <c r="BI38">
         <v>1</v>
@@ -31675,7 +32715,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:66">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -31701,16 +32741,16 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>75.76000000000001</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="J39">
-        <v>78.45999999999999</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="K39">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L39">
-        <v>78.45999999999999</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="M39">
         <v>0.97</v>
@@ -31785,7 +32825,7 @@
         <v>336</v>
       </c>
       <c r="BB39">
-        <v>50789100579.371</v>
+        <v>50789100579.371002</v>
       </c>
       <c r="BC39">
         <v>38</v>
@@ -31797,13 +32837,13 @@
         <v>385</v>
       </c>
       <c r="BF39">
-        <v>49041323730.47601</v>
+        <v>49041323730.476013</v>
       </c>
       <c r="BG39">
-        <v>0.04181530616293657</v>
+        <v>4.181530616293657E-2</v>
       </c>
       <c r="BH39">
-        <v>0.04265332043830238</v>
+        <v>4.2653320438302382E-2</v>
       </c>
       <c r="BI39">
         <v>1</v>
@@ -31812,7 +32852,7 @@
         <v>0</v>
       </c>
       <c r="BK39">
-        <v>633190912.9760472</v>
+        <v>633190912.97604716</v>
       </c>
       <c r="BL39">
         <v>633190913</v>
@@ -31824,7 +32864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:66">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -31853,13 +32893,13 @@
         <v>87.2</v>
       </c>
       <c r="J40">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="K40">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="L40">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="M40">
         <v>0.97</v>
@@ -31934,7 +32974,7 @@
         <v>336</v>
       </c>
       <c r="BB40">
-        <v>20318246054.7</v>
+        <v>20318246054.700001</v>
       </c>
       <c r="BC40">
         <v>38</v>
@@ -31946,13 +32986,13 @@
         <v>386</v>
       </c>
       <c r="BF40">
-        <v>21067194482.4</v>
+        <v>21067194482.400002</v>
       </c>
       <c r="BG40">
-        <v>0.01796303852068011</v>
+        <v>1.7963038520680111E-2</v>
       </c>
       <c r="BH40">
-        <v>0.01832303307986424</v>
+        <v>1.8323033079864239E-2</v>
       </c>
       <c r="BI40">
         <v>1</v>
@@ -31961,7 +33001,7 @@
         <v>0</v>
       </c>
       <c r="BK40">
-        <v>253764870.9407425</v>
+        <v>253764870.94074249</v>
       </c>
       <c r="BL40">
         <v>253764871</v>
@@ -31973,7 +33013,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:66">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -31999,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="J41">
         <v>171.5</v>
@@ -32095,13 +33135,13 @@
         <v>387</v>
       </c>
       <c r="BF41">
-        <v>5931419965.6</v>
+        <v>5931419965.6000004</v>
       </c>
       <c r="BG41">
-        <v>0.00505745202159761</v>
+        <v>5.0574520215976096E-3</v>
       </c>
       <c r="BH41">
-        <v>0.005158807658563699</v>
+        <v>5.1588076585636989E-3</v>
       </c>
       <c r="BI41">
         <v>1</v>
@@ -32110,7 +33150,7 @@
         <v>0</v>
       </c>
       <c r="BK41">
-        <v>35036066.62463506</v>
+        <v>35036066.624635063</v>
       </c>
       <c r="BL41">
         <v>35036067</v>
@@ -32122,7 +33162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:66">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -32232,7 +33272,7 @@
         <v>336</v>
       </c>
       <c r="BB42">
-        <v>6637559214.888</v>
+        <v>6637559214.8879995</v>
       </c>
       <c r="BC42">
         <v>41</v>
@@ -32244,13 +33284,13 @@
         <v>388</v>
       </c>
       <c r="BF42">
-        <v>7073205763.176</v>
+        <v>7073205763.1759996</v>
       </c>
       <c r="BG42">
-        <v>0.006031000838520414</v>
+        <v>6.0310008385204136E-3</v>
       </c>
       <c r="BH42">
-        <v>0.006151867221220799</v>
+        <v>6.1518672212207987E-3</v>
       </c>
       <c r="BI42">
         <v>1</v>
@@ -32259,7 +33299,7 @@
         <v>0</v>
       </c>
       <c r="BK42">
-        <v>163294089.8227997</v>
+        <v>163294089.82279971</v>
       </c>
       <c r="BL42">
         <v>163294090</v>
@@ -32271,7 +33311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:66">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -32381,7 +33421,7 @@
         <v>336</v>
       </c>
       <c r="BB43">
-        <v>4261130501.84</v>
+        <v>4261130501.8400002</v>
       </c>
       <c r="BC43">
         <v>41</v>
@@ -32393,13 +33433,13 @@
         <v>389</v>
       </c>
       <c r="BF43">
-        <v>4073385963.6</v>
+        <v>4073385963.5999999</v>
       </c>
       <c r="BG43">
-        <v>0.003473190938398211</v>
+        <v>3.4731909383982108E-3</v>
       </c>
       <c r="BH43">
-        <v>0.003542796636754395</v>
+        <v>3.5427966367543948E-3</v>
       </c>
       <c r="BI43">
         <v>1</v>
@@ -32420,7 +33460,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:66">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -32542,13 +33582,13 @@
         <v>390</v>
       </c>
       <c r="BF44">
-        <v>6055897799.100001</v>
+        <v>6055897799.1000013</v>
       </c>
       <c r="BG44">
-        <v>0.00516358860850762</v>
+        <v>5.1635886085076204E-3</v>
       </c>
       <c r="BH44">
-        <v>0.00526707131288349</v>
+        <v>5.2670713128834899E-3</v>
       </c>
       <c r="BI44">
         <v>1</v>
@@ -32569,7 +33609,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:66">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -32625,7 +33665,7 @@
         <v>336</v>
       </c>
       <c r="BB45">
-        <v>594802639.2960001</v>
+        <v>594802639.29600012</v>
       </c>
       <c r="BC45">
         <v>44</v>
@@ -32637,13 +33677,13 @@
         <v>391</v>
       </c>
       <c r="BF45">
-        <v>626451766.2180001</v>
+        <v>626451766.21800005</v>
       </c>
       <c r="BG45">
-        <v>0.0005341469276947631</v>
+        <v>5.3414692769476312E-4</v>
       </c>
       <c r="BH45">
-        <v>0.0005448516861104208</v>
+        <v>5.4485168611042082E-4</v>
       </c>
       <c r="BI45">
         <v>1</v>
@@ -32664,7 +33704,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:66">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -32702,7 +33742,7 @@
         <v>202.75</v>
       </c>
       <c r="M46">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N46">
         <v>56.15</v>
@@ -32786,13 +33826,13 @@
         <v>392</v>
       </c>
       <c r="BF46">
-        <v>114849442687.68</v>
+        <v>114849442687.67999</v>
       </c>
       <c r="BG46">
-        <v>0.0979268959994152</v>
+        <v>9.7926895999415203E-2</v>
       </c>
       <c r="BH46">
-        <v>0.09988943422572887</v>
+        <v>9.9889434225728865E-2</v>
       </c>
       <c r="BI46">
         <v>1</v>
@@ -32801,7 +33841,7 @@
         <v>0</v>
       </c>
       <c r="BK46">
-        <v>573837363.4300702</v>
+        <v>573837363.43007016</v>
       </c>
       <c r="BL46">
         <v>573837363</v>
@@ -32813,7 +33853,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:66">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -32851,7 +33891,7 @@
         <v>34.32</v>
       </c>
       <c r="M47">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N47">
         <v>55.34</v>
@@ -32923,7 +33963,7 @@
         <v>336</v>
       </c>
       <c r="BB47">
-        <v>6596972711.472</v>
+        <v>6596972711.4720001</v>
       </c>
       <c r="BC47">
         <v>45</v>
@@ -32938,10 +33978,10 @@
         <v>6967956316.75</v>
       </c>
       <c r="BG47">
-        <v>0.005941259422689752</v>
+        <v>5.9412594226897521E-3</v>
       </c>
       <c r="BH47">
-        <v>0.006060327311143446</v>
+        <v>6.060327311143446E-3</v>
       </c>
       <c r="BI47">
         <v>1</v>
@@ -32950,7 +33990,7 @@
         <v>0</v>
       </c>
       <c r="BK47">
-        <v>205673781.6523303</v>
+        <v>205673781.65233031</v>
       </c>
       <c r="BL47">
         <v>205673782</v>
@@ -32962,7 +34002,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:66">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -32994,13 +34034,13 @@
         <v>131.5</v>
       </c>
       <c r="K48">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L48">
         <v>131.5</v>
       </c>
       <c r="M48">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="N48">
         <v>77.88</v>
@@ -33072,7 +34112,7 @@
         <v>336</v>
       </c>
       <c r="BB48">
-        <v>19152363571.025</v>
+        <v>19152363571.025002</v>
       </c>
       <c r="BC48">
         <v>47</v>
@@ -33084,13 +34124,13 @@
         <v>394</v>
       </c>
       <c r="BF48">
-        <v>22116246450.6475</v>
+        <v>22116246450.647499</v>
       </c>
       <c r="BG48">
-        <v>0.01885751741921442</v>
+        <v>1.8857517419214421E-2</v>
       </c>
       <c r="BH48">
-        <v>0.01923543809576486</v>
+        <v>1.9235438095764858E-2</v>
       </c>
       <c r="BI48">
         <v>1</v>
@@ -33099,7 +34139,7 @@
         <v>0</v>
       </c>
       <c r="BK48">
-        <v>170375232.3779454</v>
+        <v>170375232.37794539</v>
       </c>
       <c r="BL48">
         <v>170375232</v>
@@ -33111,7 +34151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:66">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -33137,7 +34177,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>130.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="J49">
         <v>120.5</v>
@@ -33221,7 +34261,7 @@
         <v>336</v>
       </c>
       <c r="BB49">
-        <v>3577425762.300001</v>
+        <v>3577425762.3000011</v>
       </c>
       <c r="BC49">
         <v>48</v>
@@ -33233,13 +34273,13 @@
         <v>395</v>
       </c>
       <c r="BF49">
-        <v>3865401114.12</v>
+        <v>3865401114.1199999</v>
       </c>
       <c r="BG49">
-        <v>0.003295851717172136</v>
+        <v>3.2958517171721362E-3</v>
       </c>
       <c r="BH49">
-        <v>0.003361903386809969</v>
+        <v>3.3619033868099689E-3</v>
       </c>
       <c r="BI49">
         <v>1</v>
@@ -33248,7 +34288,7 @@
         <v>0</v>
       </c>
       <c r="BK49">
-        <v>32495880.85768015</v>
+        <v>32495880.857680149</v>
       </c>
       <c r="BL49">
         <v>32495881</v>
@@ -33260,7 +34300,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:66">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -33370,7 +34410,7 @@
         <v>336</v>
       </c>
       <c r="BB50">
-        <v>128294334417.6</v>
+        <v>128294334417.60001</v>
       </c>
       <c r="BC50">
         <v>49</v>
@@ -33382,7 +34422,7 @@
         <v>396</v>
       </c>
       <c r="BF50">
-        <v>138018848744.8</v>
+        <v>138018848744.79999</v>
       </c>
       <c r="BG50">
         <v>0.1176823947134477</v>
@@ -33391,13 +34431,13 @@
         <v>0.1</v>
       </c>
       <c r="BI50">
-        <v>0.83304974983723</v>
+        <v>0.83304974983723001</v>
       </c>
       <c r="BJ50" t="b">
         <v>1</v>
       </c>
       <c r="BK50">
-        <v>523950994.8442315</v>
+        <v>523950994.84423149</v>
       </c>
       <c r="BL50">
         <v>523950995</v>
@@ -33409,7 +34449,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:66">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -33468,7 +34508,7 @@
         <v>336</v>
       </c>
       <c r="BB51">
-        <v>633051661.6800001</v>
+        <v>633051661.68000007</v>
       </c>
       <c r="BC51">
         <v>50</v>
@@ -33480,13 +34520,13 @@
         <v>397</v>
       </c>
       <c r="BF51">
-        <v>628172650.8000001</v>
+        <v>628172650.80000007</v>
       </c>
       <c r="BG51">
-        <v>0.000535614247705595</v>
+        <v>5.3561424770559498E-4</v>
       </c>
       <c r="BH51">
-        <v>0.0005463484124613812</v>
+        <v>5.4634841246138123E-4</v>
       </c>
       <c r="BI51">
         <v>1</v>
@@ -33495,7 +34535,7 @@
         <v>0</v>
       </c>
       <c r="BK51">
-        <v>30652963.51623758</v>
+        <v>30652963.516237579</v>
       </c>
       <c r="BL51">
         <v>30652964</v>
@@ -33507,7 +34547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:66">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -33584,7 +34624,7 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0.009599999999999999</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="AA52" t="s">
         <v>313</v>
@@ -33602,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0.009599999999999999</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -33620,7 +34660,7 @@
         <v>336</v>
       </c>
       <c r="BB52">
-        <v>1910434050.304</v>
+        <v>1910434050.3039999</v>
       </c>
       <c r="BC52">
         <v>51</v>
@@ -33635,10 +34675,10 @@
         <v>1852625527.168</v>
       </c>
       <c r="BG52">
-        <v>0.00157964952270773</v>
+        <v>1.57964952270773E-3</v>
       </c>
       <c r="BH52">
-        <v>0.001611307041725902</v>
+        <v>1.611307041725902E-3</v>
       </c>
       <c r="BI52">
         <v>1</v>
@@ -33647,7 +34687,7 @@
         <v>0</v>
       </c>
       <c r="BK52">
-        <v>67606581.29894581</v>
+        <v>67606581.298945814</v>
       </c>
       <c r="BL52">
         <v>67606581</v>
@@ -33659,7 +34699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:66">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -33781,13 +34821,13 @@
         <v>399</v>
       </c>
       <c r="BF53">
-        <v>3663113650.7</v>
+        <v>3663113650.6999998</v>
       </c>
       <c r="BG53">
-        <v>0.003123370397901086</v>
+        <v>3.1233703979010861E-3</v>
       </c>
       <c r="BH53">
-        <v>0.003185965395304597</v>
+        <v>3.185965395304597E-3</v>
       </c>
       <c r="BI53">
         <v>1</v>
@@ -33796,7 +34836,7 @@
         <v>0</v>
       </c>
       <c r="BK53">
-        <v>62054031.57999192</v>
+        <v>62054031.579991922</v>
       </c>
       <c r="BL53">
         <v>62054032</v>
@@ -33808,7 +34848,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:66">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -33822,7 +34862,7 @@
         <v>55337770</v>
       </c>
       <c r="E54">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -33840,7 +34880,7 @@
         <v>48</v>
       </c>
       <c r="K54">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L54">
         <v>48</v>
@@ -33933,10 +34973,10 @@
         <v>1517527666.71</v>
       </c>
       <c r="BG54">
-        <v>0.00129392681859384</v>
+        <v>1.29392681859384E-3</v>
       </c>
       <c r="BH54">
-        <v>0.001319858211778793</v>
+        <v>1.319858211778793E-3</v>
       </c>
       <c r="BI54">
         <v>1</v>
@@ -33957,7 +34997,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:66">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -33983,7 +35023,7 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>75.45999999999999</v>
+        <v>75.459999999999994</v>
       </c>
       <c r="J55">
         <v>81.22</v>
@@ -34082,10 +35122,10 @@
         <v>15228986763.76</v>
       </c>
       <c r="BG55">
-        <v>0.01298506434242516</v>
+        <v>1.298506434242516E-2</v>
       </c>
       <c r="BH55">
-        <v>0.01324529606817397</v>
+        <v>1.324529606817397E-2</v>
       </c>
       <c r="BI55">
         <v>1</v>
@@ -34094,7 +35134,7 @@
         <v>0</v>
       </c>
       <c r="BK55">
-        <v>189945416.0727876</v>
+        <v>189945416.07278761</v>
       </c>
       <c r="BL55">
         <v>189945416</v>
@@ -34106,7 +35146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:66">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -34138,7 +35178,7 @@
         <v>23.3</v>
       </c>
       <c r="K56">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L56">
         <v>23.3</v>
@@ -34180,10 +35220,10 @@
         <v>650800268.8950001</v>
       </c>
       <c r="BG56">
-        <v>0.000554907788466862</v>
+        <v>5.54907788466862E-4</v>
       </c>
       <c r="BH56">
-        <v>0.0005660286121775604</v>
+        <v>5.6602861217756038E-4</v>
       </c>
       <c r="BI56">
         <v>1</v>
@@ -34204,7 +35244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:66">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -34329,10 +35369,10 @@
         <v>1150338000</v>
       </c>
       <c r="BG57">
-        <v>0.0009808408909437335</v>
+        <v>9.8084089094373347E-4</v>
       </c>
       <c r="BH57">
-        <v>0.001000497776039123</v>
+        <v>1.0004977760391231E-3</v>
       </c>
       <c r="BI57">
         <v>1</v>
@@ -34341,7 +35381,7 @@
         <v>0</v>
       </c>
       <c r="BK57">
-        <v>17656406.7079772</v>
+        <v>17656406.707977202</v>
       </c>
       <c r="BL57">
         <v>17656407</v>
@@ -34353,7 +35393,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:66">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -34463,7 +35503,7 @@
         <v>336</v>
       </c>
       <c r="BB58">
-        <v>856263337.056</v>
+        <v>856263337.05599999</v>
       </c>
       <c r="BC58">
         <v>57</v>
@@ -34475,13 +35515,13 @@
         <v>404</v>
       </c>
       <c r="BF58">
-        <v>759453836.96</v>
+        <v>759453836.96000004</v>
       </c>
       <c r="BG58">
-        <v>0.00064755174398697</v>
+        <v>6.4755174398697002E-4</v>
       </c>
       <c r="BH58">
-        <v>0.0006605292313066753</v>
+        <v>6.6052923130667529E-4</v>
       </c>
       <c r="BI58">
         <v>1</v>
@@ -34490,7 +35530,7 @@
         <v>0</v>
       </c>
       <c r="BK58">
-        <v>18746268.00945319</v>
+        <v>18746268.009453189</v>
       </c>
       <c r="BL58">
         <v>18746268</v>
@@ -34502,7 +35542,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:66">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -34528,16 +35568,16 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2.744</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="J59">
-        <v>2.594</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="K59">
         <v>0.5</v>
       </c>
       <c r="L59">
-        <v>2.594</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="M59">
         <v>1.47</v>
@@ -34570,13 +35610,13 @@
         <v>88</v>
       </c>
       <c r="BF59">
-        <v>347955401.948</v>
+        <v>347955401.94800001</v>
       </c>
       <c r="BG59">
-        <v>0.0002966857449335422</v>
+        <v>2.9668574493354219E-4</v>
       </c>
       <c r="BH59">
-        <v>0.0003026315794225462</v>
+        <v>3.0263157942254622E-4</v>
       </c>
       <c r="BI59">
         <v>1</v>
@@ -34585,7 +35625,7 @@
         <v>0</v>
       </c>
       <c r="BK59">
-        <v>135885902.9818492</v>
+        <v>135885902.98184919</v>
       </c>
       <c r="BL59">
         <v>135885903</v>
@@ -34597,7 +35637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:66">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -34623,7 +35663,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>32.48</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="J60">
         <v>33.56</v>
@@ -34707,7 +35747,7 @@
         <v>336</v>
       </c>
       <c r="BB60">
-        <v>4489792080.360001</v>
+        <v>4489792080.3600006</v>
       </c>
       <c r="BC60">
         <v>59</v>
@@ -34719,13 +35759,13 @@
         <v>405</v>
       </c>
       <c r="BF60">
-        <v>4345305326.88</v>
+        <v>4345305326.8800001</v>
       </c>
       <c r="BG60">
-        <v>0.003705044211561758</v>
+        <v>3.7050442115617579E-3</v>
       </c>
       <c r="BH60">
-        <v>0.003779296446569957</v>
+        <v>3.7792964465699569E-3</v>
       </c>
       <c r="BI60">
         <v>1</v>
@@ -34746,7 +35786,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:66">
+    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -34778,7 +35818,7 @@
         <v>28.5</v>
       </c>
       <c r="K61">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="L61">
         <v>28.5</v>
@@ -34823,7 +35863,7 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.0302</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AA61" t="s">
         <v>313</v>
@@ -34841,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>0.0302</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -34859,7 +35899,7 @@
         <v>336</v>
       </c>
       <c r="BB61">
-        <v>17968250261.325</v>
+        <v>17968250261.325001</v>
       </c>
       <c r="BC61">
         <v>60</v>
@@ -34874,10 +35914,10 @@
         <v>18523059392.201</v>
       </c>
       <c r="BG61">
-        <v>0.01579377024600606</v>
+        <v>1.5793770246006061E-2</v>
       </c>
       <c r="BH61">
-        <v>0.01611029082525108</v>
+        <v>1.6110290825251079E-2</v>
       </c>
       <c r="BI61">
         <v>1</v>
@@ -34886,7 +35926,7 @@
         <v>0</v>
       </c>
       <c r="BK61">
-        <v>658398226.5993757</v>
+        <v>658398226.59937572</v>
       </c>
       <c r="BL61">
         <v>658398227</v>
@@ -34900,5 +35940,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>